--- a/resources/Zinnfiguren/Zinnfigurenliste.xlsx
+++ b/resources/Zinnfiguren/Zinnfigurenliste.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IN57KC\data\Projekte\csharp\ArmyBuilder\resources\Zinnfiguren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D288DD-7FAB-4354-A13F-8023574233CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2414F5-89FE-45B2-854A-A2DB6DAAA16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
-    <sheet name="Dunkelelfen" sheetId="6" r:id="rId2"/>
-    <sheet name="Untote" sheetId="7" r:id="rId3"/>
-    <sheet name="Hochelfen" sheetId="1" r:id="rId4"/>
-    <sheet name="Waldelfen" sheetId="2" r:id="rId5"/>
-    <sheet name="Zwerge" sheetId="4" r:id="rId6"/>
+    <sheet name="Hochelfen" sheetId="1" r:id="rId2"/>
+    <sheet name="Zwerge" sheetId="4" r:id="rId3"/>
+    <sheet name="Dunkelelfen" sheetId="6" r:id="rId4"/>
+    <sheet name="Untote" sheetId="7" r:id="rId5"/>
+    <sheet name="Waldelfen" sheetId="2" r:id="rId6"/>
     <sheet name="Menschen" sheetId="5" r:id="rId7"/>
     <sheet name="Skaven" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hochelfen!$A$1:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hochelfen!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Zwerge!$A$1:$G$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2199,6 +2200,2532 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>521</v>
+      </c>
+      <c r="B14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C14" t="s">
+        <v>505</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>506</v>
+      </c>
+      <c r="C15" t="s">
+        <v>504</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>506</v>
+      </c>
+      <c r="C16" t="s">
+        <v>504</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>506</v>
+      </c>
+      <c r="C17" t="s">
+        <v>504</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>527</v>
+      </c>
+      <c r="B18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C18" t="s">
+        <v>505</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>522</v>
+      </c>
+      <c r="B19" t="s">
+        <v>506</v>
+      </c>
+      <c r="C19" t="s">
+        <v>504</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>522</v>
+      </c>
+      <c r="B20" t="s">
+        <v>507</v>
+      </c>
+      <c r="C20" t="s">
+        <v>504</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>506</v>
+      </c>
+      <c r="C21" t="s">
+        <v>504</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>506</v>
+      </c>
+      <c r="C22" t="s">
+        <v>504</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>506</v>
+      </c>
+      <c r="C23" t="s">
+        <v>504</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>506</v>
+      </c>
+      <c r="C24" t="s">
+        <v>504</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>506</v>
+      </c>
+      <c r="C25" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>506</v>
+      </c>
+      <c r="C26" t="s">
+        <v>504</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>523</v>
+      </c>
+      <c r="B27" t="s">
+        <v>506</v>
+      </c>
+      <c r="C27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>523</v>
+      </c>
+      <c r="B28" t="s">
+        <v>507</v>
+      </c>
+      <c r="C28" t="s">
+        <v>504</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" t="s">
+        <v>504</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>506</v>
+      </c>
+      <c r="C30" t="s">
+        <v>504</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>506</v>
+      </c>
+      <c r="C31" t="s">
+        <v>504</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" t="s">
+        <v>506</v>
+      </c>
+      <c r="C32" t="s">
+        <v>504</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" t="s">
+        <v>507</v>
+      </c>
+      <c r="C33" t="s">
+        <v>504</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>506</v>
+      </c>
+      <c r="C34" t="s">
+        <v>504</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>524</v>
+      </c>
+      <c r="B35" t="s">
+        <v>506</v>
+      </c>
+      <c r="C35" t="s">
+        <v>504</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>524</v>
+      </c>
+      <c r="B36" t="s">
+        <v>507</v>
+      </c>
+      <c r="C36" t="s">
+        <v>504</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>526</v>
+      </c>
+      <c r="B37" t="s">
+        <v>506</v>
+      </c>
+      <c r="C37" t="s">
+        <v>504</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>526</v>
+      </c>
+      <c r="B38" t="s">
+        <v>507</v>
+      </c>
+      <c r="C38" t="s">
+        <v>504</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>506</v>
+      </c>
+      <c r="C39" t="s">
+        <v>504</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>506</v>
+      </c>
+      <c r="C40" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>506</v>
+      </c>
+      <c r="C41" t="s">
+        <v>504</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>529</v>
+      </c>
+      <c r="C42" t="s">
+        <v>504</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>506</v>
+      </c>
+      <c r="C43" t="s">
+        <v>504</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>506</v>
+      </c>
+      <c r="C44" t="s">
+        <v>504</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>506</v>
+      </c>
+      <c r="C45" t="s">
+        <v>504</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>506</v>
+      </c>
+      <c r="C46" t="s">
+        <v>504</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>506</v>
+      </c>
+      <c r="C47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>544</v>
+      </c>
+      <c r="B48" t="s">
+        <v>506</v>
+      </c>
+      <c r="C48" t="s">
+        <v>504</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>506</v>
+      </c>
+      <c r="C49" t="s">
+        <v>504</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>506</v>
+      </c>
+      <c r="C50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>528</v>
+      </c>
+      <c r="B51" t="s">
+        <v>506</v>
+      </c>
+      <c r="C51" t="s">
+        <v>504</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>528</v>
+      </c>
+      <c r="B52" t="s">
+        <v>507</v>
+      </c>
+      <c r="C52" t="s">
+        <v>504</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="7:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="7:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G52">
+    <sortCondition ref="A2:A52"/>
+  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C13" t="s">
+        <v>504</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C14" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" t="s">
+        <v>506</v>
+      </c>
+      <c r="C15" t="s">
+        <v>504</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" t="s">
+        <v>506</v>
+      </c>
+      <c r="C16" t="s">
+        <v>504</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>506</v>
+      </c>
+      <c r="C17" t="s">
+        <v>504</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>506</v>
+      </c>
+      <c r="C19" t="s">
+        <v>504</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" t="s">
+        <v>504</v>
+      </c>
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" t="s">
+        <v>507</v>
+      </c>
+      <c r="C21" t="s">
+        <v>504</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s">
+        <v>506</v>
+      </c>
+      <c r="C22" t="s">
+        <v>504</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
+        <v>506</v>
+      </c>
+      <c r="C23" t="s">
+        <v>504</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>506</v>
+      </c>
+      <c r="C24" t="s">
+        <v>504</v>
+      </c>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>536</v>
+      </c>
+      <c r="B25" t="s">
+        <v>529</v>
+      </c>
+      <c r="C25" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>537</v>
+      </c>
+      <c r="B26" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" t="s">
+        <v>504</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" t="s">
+        <v>506</v>
+      </c>
+      <c r="C27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>506</v>
+      </c>
+      <c r="C28" t="s">
+        <v>504</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" t="s">
+        <v>504</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" t="s">
+        <v>506</v>
+      </c>
+      <c r="C30" t="s">
+        <v>504</v>
+      </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" t="s">
+        <v>506</v>
+      </c>
+      <c r="C31" t="s">
+        <v>504</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" t="s">
+        <v>506</v>
+      </c>
+      <c r="C32" t="s">
+        <v>504</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" t="s">
+        <v>506</v>
+      </c>
+      <c r="C33" t="s">
+        <v>504</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
+        <v>506</v>
+      </c>
+      <c r="C34" t="s">
+        <v>504</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
+        <v>506</v>
+      </c>
+      <c r="C35" t="s">
+        <v>504</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>506</v>
+      </c>
+      <c r="C36" t="s">
+        <v>504</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
+        <v>506</v>
+      </c>
+      <c r="C37" t="s">
+        <v>504</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" t="s">
+        <v>506</v>
+      </c>
+      <c r="C38" t="s">
+        <v>504</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>190</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" t="s">
+        <v>506</v>
+      </c>
+      <c r="C39" t="s">
+        <v>504</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>506</v>
+      </c>
+      <c r="C40" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>535</v>
+      </c>
+      <c r="B41" t="s">
+        <v>507</v>
+      </c>
+      <c r="C41" t="s">
+        <v>504</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>535</v>
+      </c>
+      <c r="B42" t="s">
+        <v>506</v>
+      </c>
+      <c r="C42" t="s">
+        <v>504</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>506</v>
+      </c>
+      <c r="C43" t="s">
+        <v>504</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>506</v>
+      </c>
+      <c r="C44" t="s">
+        <v>504</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" t="s">
+        <v>506</v>
+      </c>
+      <c r="C45" t="s">
+        <v>504</v>
+      </c>
+      <c r="D45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>506</v>
+      </c>
+      <c r="C46" t="s">
+        <v>504</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
+        <v>506</v>
+      </c>
+      <c r="C47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
+        <v>506</v>
+      </c>
+      <c r="C48" t="s">
+        <v>504</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>506</v>
+      </c>
+      <c r="C49" t="s">
+        <v>504</v>
+      </c>
+      <c r="D49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" t="s">
+        <v>506</v>
+      </c>
+      <c r="C50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" t="s">
+        <v>506</v>
+      </c>
+      <c r="C51" t="s">
+        <v>504</v>
+      </c>
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" t="s">
+        <v>506</v>
+      </c>
+      <c r="C52" t="s">
+        <v>504</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>506</v>
+      </c>
+      <c r="C53" t="s">
+        <v>504</v>
+      </c>
+      <c r="D53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" t="s">
+        <v>506</v>
+      </c>
+      <c r="C54" t="s">
+        <v>504</v>
+      </c>
+      <c r="D54" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>534</v>
+      </c>
+      <c r="B55" t="s">
+        <v>506</v>
+      </c>
+      <c r="C55" t="s">
+        <v>505</v>
+      </c>
+      <c r="D55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" t="s">
+        <v>506</v>
+      </c>
+      <c r="C56" t="s">
+        <v>504</v>
+      </c>
+      <c r="D56" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G56" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G56">
+    <sortCondition ref="A2:A56"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -2938,7 +5465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -3701,1216 +6228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G111"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>506</v>
-      </c>
-      <c r="C5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C7" t="s">
-        <v>504</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>506</v>
-      </c>
-      <c r="C8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C9" t="s">
-        <v>504</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>521</v>
-      </c>
-      <c r="B13" t="s">
-        <v>506</v>
-      </c>
-      <c r="C13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>521</v>
-      </c>
-      <c r="B14" t="s">
-        <v>506</v>
-      </c>
-      <c r="C14" t="s">
-        <v>505</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>506</v>
-      </c>
-      <c r="C15" t="s">
-        <v>504</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>506</v>
-      </c>
-      <c r="C16" t="s">
-        <v>504</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>506</v>
-      </c>
-      <c r="C17" t="s">
-        <v>504</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>527</v>
-      </c>
-      <c r="B18" t="s">
-        <v>506</v>
-      </c>
-      <c r="C18" t="s">
-        <v>505</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>522</v>
-      </c>
-      <c r="B19" t="s">
-        <v>506</v>
-      </c>
-      <c r="C19" t="s">
-        <v>504</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>522</v>
-      </c>
-      <c r="B20" t="s">
-        <v>507</v>
-      </c>
-      <c r="C20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>506</v>
-      </c>
-      <c r="C21" t="s">
-        <v>504</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>506</v>
-      </c>
-      <c r="C22" t="s">
-        <v>504</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>506</v>
-      </c>
-      <c r="C23" t="s">
-        <v>504</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>506</v>
-      </c>
-      <c r="C24" t="s">
-        <v>504</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>506</v>
-      </c>
-      <c r="C25" t="s">
-        <v>504</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>506</v>
-      </c>
-      <c r="C26" t="s">
-        <v>504</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>523</v>
-      </c>
-      <c r="B27" t="s">
-        <v>506</v>
-      </c>
-      <c r="C27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>523</v>
-      </c>
-      <c r="B28" t="s">
-        <v>507</v>
-      </c>
-      <c r="C28" t="s">
-        <v>504</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>506</v>
-      </c>
-      <c r="C29" t="s">
-        <v>504</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>506</v>
-      </c>
-      <c r="C30" t="s">
-        <v>504</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>506</v>
-      </c>
-      <c r="C31" t="s">
-        <v>504</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>525</v>
-      </c>
-      <c r="B32" t="s">
-        <v>506</v>
-      </c>
-      <c r="C32" t="s">
-        <v>504</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>525</v>
-      </c>
-      <c r="B33" t="s">
-        <v>507</v>
-      </c>
-      <c r="C33" t="s">
-        <v>504</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>506</v>
-      </c>
-      <c r="C34" t="s">
-        <v>504</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>524</v>
-      </c>
-      <c r="B35" t="s">
-        <v>506</v>
-      </c>
-      <c r="C35" t="s">
-        <v>504</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>524</v>
-      </c>
-      <c r="B36" t="s">
-        <v>507</v>
-      </c>
-      <c r="C36" t="s">
-        <v>504</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>526</v>
-      </c>
-      <c r="B37" t="s">
-        <v>506</v>
-      </c>
-      <c r="C37" t="s">
-        <v>504</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>526</v>
-      </c>
-      <c r="B38" t="s">
-        <v>507</v>
-      </c>
-      <c r="C38" t="s">
-        <v>504</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>506</v>
-      </c>
-      <c r="C39" t="s">
-        <v>504</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>506</v>
-      </c>
-      <c r="C40" t="s">
-        <v>504</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>506</v>
-      </c>
-      <c r="C41" t="s">
-        <v>504</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" t="s">
-        <v>529</v>
-      </c>
-      <c r="C42" t="s">
-        <v>504</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>506</v>
-      </c>
-      <c r="C43" t="s">
-        <v>504</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>506</v>
-      </c>
-      <c r="C44" t="s">
-        <v>504</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>506</v>
-      </c>
-      <c r="C45" t="s">
-        <v>504</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" t="s">
-        <v>506</v>
-      </c>
-      <c r="C46" t="s">
-        <v>504</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" t="s">
-        <v>506</v>
-      </c>
-      <c r="C47" t="s">
-        <v>504</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>544</v>
-      </c>
-      <c r="B48" t="s">
-        <v>506</v>
-      </c>
-      <c r="C48" t="s">
-        <v>504</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>506</v>
-      </c>
-      <c r="C49" t="s">
-        <v>504</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
-        <v>506</v>
-      </c>
-      <c r="C50" t="s">
-        <v>504</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>528</v>
-      </c>
-      <c r="B51" t="s">
-        <v>506</v>
-      </c>
-      <c r="C51" t="s">
-        <v>504</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>528</v>
-      </c>
-      <c r="B52" t="s">
-        <v>507</v>
-      </c>
-      <c r="C52" t="s">
-        <v>504</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="7:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="7:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G52">
-    <sortCondition ref="A2:A52"/>
-  </sortState>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
@@ -5434,1318 +6752,6 @@
       </c>
       <c r="G22">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>506</v>
-      </c>
-      <c r="C5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C7" t="s">
-        <v>504</v>
-      </c>
-      <c r="D7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" t="s">
-        <v>506</v>
-      </c>
-      <c r="C8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C9" t="s">
-        <v>504</v>
-      </c>
-      <c r="D9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" t="s">
-        <v>506</v>
-      </c>
-      <c r="C13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" t="s">
-        <v>506</v>
-      </c>
-      <c r="C14" t="s">
-        <v>504</v>
-      </c>
-      <c r="D14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" t="s">
-        <v>506</v>
-      </c>
-      <c r="C15" t="s">
-        <v>504</v>
-      </c>
-      <c r="D15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" t="s">
-        <v>506</v>
-      </c>
-      <c r="C16" t="s">
-        <v>504</v>
-      </c>
-      <c r="D16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>506</v>
-      </c>
-      <c r="C17" t="s">
-        <v>504</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>506</v>
-      </c>
-      <c r="C18" t="s">
-        <v>504</v>
-      </c>
-      <c r="D18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" t="s">
-        <v>506</v>
-      </c>
-      <c r="C19" t="s">
-        <v>504</v>
-      </c>
-      <c r="D19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" t="s">
-        <v>506</v>
-      </c>
-      <c r="C20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" t="s">
-        <v>506</v>
-      </c>
-      <c r="C21" t="s">
-        <v>504</v>
-      </c>
-      <c r="D21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>506</v>
-      </c>
-      <c r="C22" t="s">
-        <v>504</v>
-      </c>
-      <c r="D22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" t="s">
-        <v>506</v>
-      </c>
-      <c r="C23" t="s">
-        <v>504</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" t="s">
-        <v>506</v>
-      </c>
-      <c r="C24" t="s">
-        <v>504</v>
-      </c>
-      <c r="D24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" t="s">
-        <v>506</v>
-      </c>
-      <c r="C25" t="s">
-        <v>504</v>
-      </c>
-      <c r="D25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" t="s">
-        <v>506</v>
-      </c>
-      <c r="C26" t="s">
-        <v>504</v>
-      </c>
-      <c r="D26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" t="s">
-        <v>506</v>
-      </c>
-      <c r="C27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" t="s">
-        <v>178</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B28" t="s">
-        <v>506</v>
-      </c>
-      <c r="C28" t="s">
-        <v>504</v>
-      </c>
-      <c r="D28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" t="s">
-        <v>506</v>
-      </c>
-      <c r="C29" t="s">
-        <v>504</v>
-      </c>
-      <c r="D29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" t="s">
-        <v>506</v>
-      </c>
-      <c r="C30" t="s">
-        <v>504</v>
-      </c>
-      <c r="D30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" t="s">
-        <v>506</v>
-      </c>
-      <c r="C31" t="s">
-        <v>504</v>
-      </c>
-      <c r="D31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
-        <v>506</v>
-      </c>
-      <c r="C32" t="s">
-        <v>504</v>
-      </c>
-      <c r="D32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" t="s">
-        <v>506</v>
-      </c>
-      <c r="C33" t="s">
-        <v>504</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>190</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>506</v>
-      </c>
-      <c r="C34" t="s">
-        <v>504</v>
-      </c>
-      <c r="D34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>193</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>506</v>
-      </c>
-      <c r="C35" t="s">
-        <v>504</v>
-      </c>
-      <c r="D35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s">
-        <v>506</v>
-      </c>
-      <c r="C36" t="s">
-        <v>504</v>
-      </c>
-      <c r="D36" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" t="s">
-        <v>506</v>
-      </c>
-      <c r="C37" t="s">
-        <v>504</v>
-      </c>
-      <c r="D37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>199</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" t="s">
-        <v>506</v>
-      </c>
-      <c r="C38" t="s">
-        <v>504</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>202</v>
-      </c>
-      <c r="B39" t="s">
-        <v>506</v>
-      </c>
-      <c r="C39" t="s">
-        <v>504</v>
-      </c>
-      <c r="D39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>203</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" t="s">
-        <v>506</v>
-      </c>
-      <c r="C40" t="s">
-        <v>504</v>
-      </c>
-      <c r="D40" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>204</v>
-      </c>
-      <c r="B41" t="s">
-        <v>506</v>
-      </c>
-      <c r="C41" t="s">
-        <v>504</v>
-      </c>
-      <c r="D41" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" t="s">
-        <v>205</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>208</v>
-      </c>
-      <c r="B42" t="s">
-        <v>506</v>
-      </c>
-      <c r="C42" t="s">
-        <v>504</v>
-      </c>
-      <c r="D42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" t="s">
-        <v>209</v>
-      </c>
-      <c r="G42">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>537</v>
-      </c>
-      <c r="B43" t="s">
-        <v>529</v>
-      </c>
-      <c r="C43" t="s">
-        <v>504</v>
-      </c>
-      <c r="D43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" t="s">
-        <v>210</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>536</v>
-      </c>
-      <c r="B44" t="s">
-        <v>529</v>
-      </c>
-      <c r="C44" t="s">
-        <v>504</v>
-      </c>
-      <c r="D44" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" t="s">
-        <v>211</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>212</v>
-      </c>
-      <c r="B45" t="s">
-        <v>506</v>
-      </c>
-      <c r="C45" t="s">
-        <v>504</v>
-      </c>
-      <c r="D45" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" t="s">
-        <v>213</v>
-      </c>
-      <c r="G45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>214</v>
-      </c>
-      <c r="B46" t="s">
-        <v>506</v>
-      </c>
-      <c r="C46" t="s">
-        <v>504</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" t="s">
-        <v>215</v>
-      </c>
-      <c r="G46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>535</v>
-      </c>
-      <c r="B47" t="s">
-        <v>507</v>
-      </c>
-      <c r="C47" t="s">
-        <v>504</v>
-      </c>
-      <c r="D47" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" t="s">
-        <v>216</v>
-      </c>
-      <c r="G47">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" t="s">
-        <v>506</v>
-      </c>
-      <c r="C48" t="s">
-        <v>504</v>
-      </c>
-      <c r="D48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" t="s">
-        <v>218</v>
-      </c>
-      <c r="G48">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>219</v>
-      </c>
-      <c r="B49" t="s">
-        <v>506</v>
-      </c>
-      <c r="C49" t="s">
-        <v>504</v>
-      </c>
-      <c r="D49" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" t="s">
-        <v>220</v>
-      </c>
-      <c r="G49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>221</v>
-      </c>
-      <c r="B50" t="s">
-        <v>506</v>
-      </c>
-      <c r="C50" t="s">
-        <v>504</v>
-      </c>
-      <c r="D50" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" t="s">
-        <v>222</v>
-      </c>
-      <c r="G50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>208</v>
-      </c>
-      <c r="B51" t="s">
-        <v>507</v>
-      </c>
-      <c r="C51" t="s">
-        <v>504</v>
-      </c>
-      <c r="D51" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
-        <v>223</v>
-      </c>
-      <c r="G51">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>208</v>
-      </c>
-      <c r="B52" t="s">
-        <v>506</v>
-      </c>
-      <c r="C52" t="s">
-        <v>504</v>
-      </c>
-      <c r="D52" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" t="s">
-        <v>224</v>
-      </c>
-      <c r="G52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>225</v>
-      </c>
-      <c r="B53" t="s">
-        <v>506</v>
-      </c>
-      <c r="C53" t="s">
-        <v>504</v>
-      </c>
-      <c r="D53" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" t="s">
-        <v>226</v>
-      </c>
-      <c r="G53">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>228</v>
-      </c>
-      <c r="B54" t="s">
-        <v>506</v>
-      </c>
-      <c r="C54" t="s">
-        <v>504</v>
-      </c>
-      <c r="D54" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" t="s">
-        <v>227</v>
-      </c>
-      <c r="G54">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>535</v>
-      </c>
-      <c r="B55" t="s">
-        <v>506</v>
-      </c>
-      <c r="C55" t="s">
-        <v>504</v>
-      </c>
-      <c r="D55" t="s">
-        <v>129</v>
-      </c>
-      <c r="E55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" t="s">
-        <v>229</v>
-      </c>
-      <c r="G55">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>534</v>
-      </c>
-      <c r="B56" t="s">
-        <v>506</v>
-      </c>
-      <c r="C56" t="s">
-        <v>505</v>
-      </c>
-      <c r="D56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" t="s">
-        <v>230</v>
-      </c>
-      <c r="G56">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Zinnfiguren/Zinnfigurenliste.xlsx
+++ b/resources/Zinnfiguren/Zinnfigurenliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IN57KC\data\Projekte\csharp\ArmyBuilder\resources\Zinnfiguren\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\projects\ArmyBuilder\sourcecode\resources\Zinnfiguren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2414F5-89FE-45B2-854A-A2DB6DAAA16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1DA17D-454C-4D75-AD89-D43A1232C99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="553">
   <si>
     <t>Anzahl</t>
   </si>
@@ -1679,6 +1677,30 @@
   </si>
   <si>
     <t>Tiranoc Streitwagen</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>HighElf_MaidenGuard2.jpg</t>
+  </si>
+  <si>
+    <t>HighElf_PhoenixGuard2.jpg</t>
+  </si>
+  <si>
+    <t>HighElf_ShadowWarrior2.jpg</t>
+  </si>
+  <si>
+    <t>HighElf_SeaGuardOfLothern2.jpg</t>
+  </si>
+  <si>
+    <t>HighElf_SilverHelm2.jpg</t>
+  </si>
+  <si>
+    <t>HighElf_StandardBearer2.jpg</t>
+  </si>
+  <si>
+    <t>HighElf_TwinBlade2.jpg</t>
   </si>
 </sst>
 </file>
@@ -1761,9 +1783,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1801,9 +1823,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1836,9 +1858,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1871,9 +1910,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2201,11 +2257,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2587,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2610,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>527</v>
       </c>
@@ -2633,7 +2689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>522</v>
       </c>
@@ -2655,8 +2711,11 @@
       <c r="G19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>522</v>
       </c>
@@ -2672,11 +2731,17 @@
       <c r="E20" t="s">
         <v>29</v>
       </c>
+      <c r="F20" t="s">
+        <v>546</v>
+      </c>
       <c r="G20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2699,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2722,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2745,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2768,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2791,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2814,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>523</v>
       </c>
@@ -2836,8 +2901,11 @@
       <c r="G27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>523</v>
       </c>
@@ -2853,11 +2921,17 @@
       <c r="E28" t="s">
         <v>29</v>
       </c>
+      <c r="F28" t="s">
+        <v>547</v>
+      </c>
       <c r="G28">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2880,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2903,7 +2977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2926,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>525</v>
       </c>
@@ -2948,8 +3022,11 @@
       <c r="G32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>525</v>
       </c>
@@ -2965,11 +3042,17 @@
       <c r="E33" t="s">
         <v>29</v>
       </c>
+      <c r="F33" t="s">
+        <v>548</v>
+      </c>
       <c r="G33">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2992,7 +3075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>524</v>
       </c>
@@ -3014,8 +3097,11 @@
       <c r="G35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>524</v>
       </c>
@@ -3031,11 +3117,17 @@
       <c r="E36" t="s">
         <v>29</v>
       </c>
+      <c r="F36" t="s">
+        <v>549</v>
+      </c>
       <c r="G36">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>526</v>
       </c>
@@ -3057,8 +3149,11 @@
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>526</v>
       </c>
@@ -3074,11 +3169,17 @@
       <c r="E38" t="s">
         <v>29</v>
       </c>
+      <c r="F38" t="s">
+        <v>550</v>
+      </c>
       <c r="G38">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -3101,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3124,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -3146,8 +3247,11 @@
       <c r="G41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3163,11 +3267,17 @@
       <c r="E42" t="s">
         <v>29</v>
       </c>
+      <c r="F42" t="s">
+        <v>551</v>
+      </c>
       <c r="G42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3190,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3213,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -3236,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -3259,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3282,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>544</v>
       </c>
@@ -3305,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3328,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -3351,7 +3461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>528</v>
       </c>
@@ -3373,8 +3483,11 @@
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>528</v>
       </c>
@@ -3390,8 +3503,14 @@
       <c r="E52" t="s">
         <v>29</v>
       </c>
+      <c r="F52" t="s">
+        <v>552</v>
+      </c>
       <c r="G52">
         <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="110" spans="7:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">

--- a/resources/Zinnfiguren/Zinnfigurenliste.xlsx
+++ b/resources/Zinnfiguren/Zinnfigurenliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\projects\ArmyBuilder\sourcecode\resources\Zinnfiguren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1DA17D-454C-4D75-AD89-D43A1232C99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F18B1-BB55-4CDB-9CF2-69B1193BFA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="Skaven" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hochelfen!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hochelfen!$A$1:$H$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Zwerge!$A$1:$G$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="554">
   <si>
     <t>Anzahl</t>
   </si>
@@ -1701,6 +1701,9 @@
   </si>
   <si>
     <t>HighElf_TwinBlade2.jpg</t>
+  </si>
+  <si>
+    <t>Verwendung</t>
   </si>
 </sst>
 </file>
@@ -2257,11 +2260,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2275,7 +2279,7 @@
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2297,8 +2301,11 @@
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2320,8 +2327,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2343,8 +2353,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2367,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2390,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -2413,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2436,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2459,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2482,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2504,8 +2517,11 @@
       <c r="G10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2527,8 +2543,11 @@
       <c r="G11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2550,8 +2569,11 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>521</v>
       </c>
@@ -2573,8 +2595,11 @@
       <c r="G13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>521</v>
       </c>
@@ -2596,8 +2621,11 @@
       <c r="G14">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2619,8 +2647,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2641,6 +2672,9 @@
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2665,8 +2699,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>527</v>
       </c>
@@ -2688,8 +2725,11 @@
       <c r="G18">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>522</v>
       </c>
@@ -2715,7 +2755,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>522</v>
       </c>
@@ -2741,7 +2781,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2762,6 +2802,9 @@
       </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2879,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>523</v>
       </c>
@@ -2905,7 +2948,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>523</v>
       </c>
@@ -2977,7 +3020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2999,8 +3042,11 @@
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>525</v>
       </c>
@@ -3026,7 +3072,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>525</v>
       </c>
@@ -3052,7 +3098,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -3074,8 +3120,11 @@
       <c r="G34">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>524</v>
       </c>
@@ -3101,7 +3150,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>524</v>
       </c>
@@ -3127,7 +3176,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>526</v>
       </c>
@@ -3153,7 +3202,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>526</v>
       </c>
@@ -3225,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -3251,7 +3300,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3369,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3391,8 +3440,11 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>544</v>
       </c>
@@ -3414,8 +3466,11 @@
       <c r="G48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3437,8 +3492,11 @@
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -3460,8 +3518,11 @@
       <c r="G50">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>528</v>
       </c>
@@ -3487,7 +3548,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>528</v>
       </c>
@@ -3518,7 +3579,11 @@
     </row>
     <row r="111" spans="7:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:H52" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G52">
     <sortCondition ref="A2:A52"/>
   </sortState>

--- a/resources/Zinnfiguren/Zinnfigurenliste.xlsx
+++ b/resources/Zinnfiguren/Zinnfigurenliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\projects\ArmyBuilder\sourcecode\resources\Zinnfiguren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F18B1-BB55-4CDB-9CF2-69B1193BFA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BBB3DA-1FC2-47CC-9EF6-E9A8061F695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="555">
   <si>
     <t>Anzahl</t>
   </si>
@@ -1704,6 +1704,9 @@
   </si>
   <si>
     <t>Verwendung</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -2265,16 +2268,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="41.85546875" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2829,6 +2832,9 @@
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -2875,6 +2881,9 @@
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -2898,6 +2907,9 @@
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2921,6 +2933,9 @@
       <c r="G26">
         <v>1</v>
       </c>
+      <c r="H26" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -2996,6 +3011,9 @@
       <c r="G29">
         <v>1</v>
       </c>
+      <c r="H29" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -3018,6 +3036,9 @@
       </c>
       <c r="G30">
         <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">

--- a/resources/Zinnfiguren/Zinnfigurenliste.xlsx
+++ b/resources/Zinnfiguren/Zinnfigurenliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\projects\ArmyBuilder\sourcecode\resources\Zinnfiguren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BBB3DA-1FC2-47CC-9EF6-E9A8061F695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F848134C-C405-4727-87C7-8AE95AA36068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="Skaven" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hochelfen!$A$1:$H$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hochelfen!$A$1:$H$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Zwerge!$A$1:$G$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="554">
   <si>
     <t>Anzahl</t>
   </si>
@@ -227,9 +227,6 @@
     <t>HighElf_Chariot.jpg</t>
   </si>
   <si>
-    <t>Repetier-Speerschleider</t>
-  </si>
-  <si>
     <t>HighElf_RepeatingBolter.jpg</t>
   </si>
   <si>
@@ -1706,7 +1703,7 @@
     <t>Verwendung</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>HighElf_RepeatingBolder_bemalt.JPG</t>
   </si>
 </sst>
 </file>
@@ -2129,15 +2126,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B2">
         <v>162</v>
@@ -2167,7 +2164,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4">
         <v>178</v>
@@ -2182,7 +2179,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B5">
         <v>136</v>
@@ -2197,7 +2194,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B6">
         <v>166</v>
@@ -2212,7 +2209,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>103</v>
@@ -2227,7 +2224,7 @@
     </row>
     <row r="8" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="2">
         <v>246</v>
@@ -2264,11 +2261,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2287,10 +2284,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2305,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -2313,10 +2310,10 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -2331,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -2339,10 +2336,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -2357,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2365,10 +2362,10 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2388,10 +2385,10 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -2408,13 +2405,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -2423,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2431,13 +2428,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -2446,7 +2443,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2457,10 +2454,10 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -2480,10 +2477,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -2500,13 +2497,13 @@
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -2515,13 +2512,13 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -2529,10 +2526,10 @@
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -2547,7 +2544,7 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -2555,10 +2552,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -2573,18 +2570,18 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -2599,18 +2596,18 @@
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -2619,24 +2616,24 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14">
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -2651,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -2659,10 +2656,10 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -2677,18 +2674,18 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -2703,18 +2700,18 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -2723,24 +2720,24 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18">
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -2749,24 +2746,24 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -2775,13 +2772,13 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G20">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -2789,10 +2786,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -2807,18 +2804,18 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -2833,18 +2830,18 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -2853,21 +2850,21 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -2882,18 +2879,18 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -2908,18 +2905,18 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -2934,18 +2931,18 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -2954,24 +2951,24 @@
         <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -2980,24 +2977,24 @@
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G28">
         <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -3012,18 +3009,18 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>361</v>
       </c>
       <c r="B30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -3032,76 +3029,64 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>506</v>
-      </c>
-      <c r="C31" t="s">
-        <v>504</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>553</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>525</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B33" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
@@ -3110,24 +3095,24 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>548</v>
+        <v>70</v>
       </c>
       <c r="G33">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>524</v>
       </c>
       <c r="B34" t="s">
         <v>506</v>
       </c>
       <c r="C34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -3136,24 +3121,24 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>547</v>
       </c>
       <c r="G34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>524</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -3162,24 +3147,24 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B36" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -3188,24 +3173,24 @@
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>549</v>
+        <v>69</v>
       </c>
       <c r="G36">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B37" t="s">
         <v>506</v>
       </c>
       <c r="C37" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -3214,24 +3199,24 @@
         <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>548</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B38" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -3240,24 +3225,24 @@
         <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>550</v>
+        <v>71</v>
       </c>
       <c r="G38">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>525</v>
       </c>
       <c r="B39" t="s">
         <v>506</v>
       </c>
       <c r="C39" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
@@ -3266,21 +3251,24 @@
         <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>549</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -3289,21 +3277,21 @@
         <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
@@ -3312,24 +3300,21 @@
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41" t="s">
-        <v>545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
@@ -3338,24 +3323,24 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="C43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
@@ -3364,21 +3349,24 @@
         <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>550</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
@@ -3387,7 +3375,7 @@
         <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -3395,13 +3383,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -3410,7 +3398,7 @@
         <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -3418,13 +3406,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -3433,125 +3421,122 @@
         <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C47" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>544</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>543</v>
       </c>
       <c r="B49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C49" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C50" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G50">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>528</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C51" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
@@ -3560,24 +3545,24 @@
         <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B52" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C52" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -3586,27 +3571,55 @@
         <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>552</v>
+        <v>75</v>
       </c>
       <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>527</v>
+      </c>
+      <c r="B53" t="s">
+        <v>506</v>
+      </c>
+      <c r="C53" t="s">
+        <v>503</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
+        <v>551</v>
+      </c>
+      <c r="G53">
         <v>27</v>
       </c>
-      <c r="H52" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="110" spans="7:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="7:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="H53" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="111" spans="7:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="7:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:H52" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <autoFilter ref="A1:H53" xr:uid="{00000000-0001-0000-0300-000000000000}">
     <filterColumn colId="7">
-      <filters blank="1"/>
+      <filters blank="1">
+        <filter val="Test"/>
+      </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G52">
-    <sortCondition ref="A2:A52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G53">
+    <sortCondition ref="A2:A53"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -3639,10 +3652,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3659,22 +3672,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>221</v>
-      </c>
-      <c r="B2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>222</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -3682,22 +3695,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>200</v>
-      </c>
-      <c r="B3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>201</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -3705,22 +3718,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -3728,22 +3741,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3751,22 +3764,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
         <v>153</v>
-      </c>
-      <c r="B6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>154</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3774,22 +3787,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>169</v>
-      </c>
-      <c r="B7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C7" t="s">
-        <v>504</v>
-      </c>
-      <c r="D7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>170</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3797,22 +3810,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>212</v>
-      </c>
-      <c r="B8" t="s">
-        <v>506</v>
-      </c>
-      <c r="C8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>213</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -3820,22 +3833,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>198</v>
-      </c>
-      <c r="B9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C9" t="s">
-        <v>504</v>
-      </c>
-      <c r="D9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>199</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3843,22 +3856,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>196</v>
-      </c>
-      <c r="B10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>197</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3866,22 +3879,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>151</v>
-      </c>
-      <c r="B11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>152</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -3889,22 +3902,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>141</v>
-      </c>
-      <c r="B12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>142</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -3912,22 +3925,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>143</v>
-      </c>
-      <c r="B13" t="s">
-        <v>506</v>
-      </c>
-      <c r="C13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>144</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -3935,22 +3948,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" t="s">
+        <v>505</v>
+      </c>
+      <c r="C14" t="s">
+        <v>503</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
         <v>217</v>
-      </c>
-      <c r="B14" t="s">
-        <v>506</v>
-      </c>
-      <c r="C14" t="s">
-        <v>504</v>
-      </c>
-      <c r="D14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>218</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -3958,22 +3971,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
         <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -3981,22 +3994,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -4004,22 +4017,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" t="s">
+        <v>503</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>202</v>
-      </c>
-      <c r="B17" t="s">
-        <v>506</v>
-      </c>
-      <c r="C17" t="s">
-        <v>504</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>203</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -4027,22 +4040,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18" t="s">
+        <v>503</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
         <v>204</v>
-      </c>
-      <c r="B18" t="s">
-        <v>506</v>
-      </c>
-      <c r="C18" t="s">
-        <v>504</v>
-      </c>
-      <c r="D18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>205</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -4050,22 +4063,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C19" t="s">
+        <v>503</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
         <v>206</v>
-      </c>
-      <c r="B19" t="s">
-        <v>506</v>
-      </c>
-      <c r="C19" t="s">
-        <v>504</v>
-      </c>
-      <c r="D19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>207</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -4073,22 +4086,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" t="s">
+        <v>503</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
         <v>208</v>
-      </c>
-      <c r="B20" t="s">
-        <v>506</v>
-      </c>
-      <c r="C20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>209</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -4096,22 +4109,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G21">
         <v>28</v>
@@ -4119,22 +4132,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -4142,22 +4155,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" t="s">
+        <v>503</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>171</v>
-      </c>
-      <c r="B23" t="s">
-        <v>506</v>
-      </c>
-      <c r="C23" t="s">
-        <v>504</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>172</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -4165,22 +4178,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C24" t="s">
+        <v>503</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>194</v>
-      </c>
-      <c r="B24" t="s">
-        <v>506</v>
-      </c>
-      <c r="C24" t="s">
-        <v>504</v>
-      </c>
-      <c r="D24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>195</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -4188,22 +4201,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
         <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -4211,22 +4224,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -4234,22 +4247,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>149</v>
-      </c>
-      <c r="B27" t="s">
-        <v>506</v>
-      </c>
-      <c r="C27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>150</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4257,22 +4270,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" t="s">
+        <v>505</v>
+      </c>
+      <c r="C28" t="s">
+        <v>503</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
         <v>214</v>
-      </c>
-      <c r="B28" t="s">
-        <v>506</v>
-      </c>
-      <c r="C28" t="s">
-        <v>504</v>
-      </c>
-      <c r="D28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s">
-        <v>215</v>
       </c>
       <c r="G28">
         <v>16</v>
@@ -4280,22 +4293,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C29" t="s">
+        <v>503</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>185</v>
-      </c>
-      <c r="B29" t="s">
-        <v>506</v>
-      </c>
-      <c r="C29" t="s">
-        <v>504</v>
-      </c>
-      <c r="D29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>186</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -4303,22 +4316,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>505</v>
+      </c>
+      <c r="C30" t="s">
+        <v>503</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
         <v>183</v>
-      </c>
-      <c r="B30" t="s">
-        <v>506</v>
-      </c>
-      <c r="C30" t="s">
-        <v>504</v>
-      </c>
-      <c r="D30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>184</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -4326,22 +4339,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>505</v>
+      </c>
+      <c r="C31" t="s">
+        <v>503</v>
+      </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
         <v>181</v>
-      </c>
-      <c r="B31" t="s">
-        <v>506</v>
-      </c>
-      <c r="C31" t="s">
-        <v>504</v>
-      </c>
-      <c r="D31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>182</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -4349,22 +4362,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C32" t="s">
+        <v>503</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
         <v>219</v>
-      </c>
-      <c r="B32" t="s">
-        <v>506</v>
-      </c>
-      <c r="C32" t="s">
-        <v>504</v>
-      </c>
-      <c r="D32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" t="s">
-        <v>220</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -4372,22 +4385,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C33" t="s">
+        <v>503</v>
+      </c>
+      <c r="D33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
         <v>225</v>
-      </c>
-      <c r="B33" t="s">
-        <v>506</v>
-      </c>
-      <c r="C33" t="s">
-        <v>504</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>226</v>
       </c>
       <c r="G33">
         <v>8</v>
@@ -4395,22 +4408,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>505</v>
+      </c>
+      <c r="C34" t="s">
+        <v>503</v>
+      </c>
+      <c r="D34" t="s">
         <v>128</v>
-      </c>
-      <c r="B34" t="s">
-        <v>506</v>
-      </c>
-      <c r="C34" t="s">
-        <v>504</v>
-      </c>
-      <c r="D34" t="s">
-        <v>129</v>
       </c>
       <c r="E34" t="s">
         <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -4418,22 +4431,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
+        <v>505</v>
+      </c>
+      <c r="C35" t="s">
+        <v>503</v>
+      </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>145</v>
-      </c>
-      <c r="B35" t="s">
-        <v>506</v>
-      </c>
-      <c r="C35" t="s">
-        <v>504</v>
-      </c>
-      <c r="D35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>146</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -4441,22 +4454,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
         <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -4464,22 +4477,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" t="s">
+        <v>505</v>
+      </c>
+      <c r="C37" t="s">
+        <v>503</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>192</v>
-      </c>
-      <c r="B37" t="s">
-        <v>506</v>
-      </c>
-      <c r="C37" t="s">
-        <v>504</v>
-      </c>
-      <c r="D37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>193</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -4487,22 +4500,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>505</v>
+      </c>
+      <c r="C38" t="s">
+        <v>503</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>189</v>
-      </c>
-      <c r="B38" t="s">
-        <v>506</v>
-      </c>
-      <c r="C38" t="s">
-        <v>504</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>190</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4510,22 +4523,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C39" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
         <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4533,22 +4546,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
         <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G40">
         <v>12</v>
@@ -4556,22 +4569,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G41">
         <v>17</v>
@@ -4579,22 +4592,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G42">
         <v>16</v>
@@ -4602,22 +4615,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>505</v>
+      </c>
+      <c r="C43" t="s">
+        <v>503</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
         <v>139</v>
-      </c>
-      <c r="B43" t="s">
-        <v>506</v>
-      </c>
-      <c r="C43" t="s">
-        <v>504</v>
-      </c>
-      <c r="D43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" t="s">
-        <v>140</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4625,22 +4638,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>505</v>
+      </c>
+      <c r="C44" t="s">
+        <v>503</v>
+      </c>
+      <c r="D44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
         <v>137</v>
-      </c>
-      <c r="B44" t="s">
-        <v>506</v>
-      </c>
-      <c r="C44" t="s">
-        <v>504</v>
-      </c>
-      <c r="D44" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" t="s">
-        <v>138</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4648,22 +4661,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>505</v>
+      </c>
+      <c r="C45" t="s">
+        <v>503</v>
+      </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>147</v>
-      </c>
-      <c r="B45" t="s">
-        <v>506</v>
-      </c>
-      <c r="C45" t="s">
-        <v>504</v>
-      </c>
-      <c r="D45" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>148</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4671,22 +4684,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
+        <v>505</v>
+      </c>
+      <c r="C46" t="s">
+        <v>503</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>133</v>
-      </c>
-      <c r="B46" t="s">
-        <v>506</v>
-      </c>
-      <c r="C46" t="s">
-        <v>504</v>
-      </c>
-      <c r="D46" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>134</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4694,22 +4707,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" t="s">
+        <v>505</v>
+      </c>
+      <c r="C47" t="s">
+        <v>503</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>158</v>
-      </c>
-      <c r="B47" t="s">
-        <v>506</v>
-      </c>
-      <c r="C47" t="s">
-        <v>504</v>
-      </c>
-      <c r="D47" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>159</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4717,22 +4730,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4740,16 +4753,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C49" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -4760,22 +4773,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>505</v>
+      </c>
+      <c r="C50" t="s">
+        <v>503</v>
+      </c>
+      <c r="D50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
         <v>160</v>
-      </c>
-      <c r="B50" t="s">
-        <v>506</v>
-      </c>
-      <c r="C50" t="s">
-        <v>504</v>
-      </c>
-      <c r="D50" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>161</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4783,22 +4796,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>505</v>
+      </c>
+      <c r="C51" t="s">
+        <v>503</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
         <v>164</v>
-      </c>
-      <c r="B51" t="s">
-        <v>506</v>
-      </c>
-      <c r="C51" t="s">
-        <v>504</v>
-      </c>
-      <c r="D51" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
-        <v>165</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4806,22 +4819,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>505</v>
+      </c>
+      <c r="C52" t="s">
+        <v>503</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
         <v>162</v>
-      </c>
-      <c r="B52" t="s">
-        <v>506</v>
-      </c>
-      <c r="C52" t="s">
-        <v>504</v>
-      </c>
-      <c r="D52" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" t="s">
-        <v>163</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4829,22 +4842,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C53" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
         <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4852,22 +4865,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C54" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
         <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -4875,22 +4888,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B55" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C55" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G55">
         <v>20</v>
@@ -4898,22 +4911,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>505</v>
+      </c>
+      <c r="C56" t="s">
+        <v>503</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>135</v>
-      </c>
-      <c r="B56" t="s">
-        <v>506</v>
-      </c>
-      <c r="C56" t="s">
-        <v>504</v>
-      </c>
-      <c r="D56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>136</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -4955,10 +4968,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4975,22 +4988,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
         <v>341</v>
       </c>
-      <c r="B2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>342</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>343</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4998,22 +5011,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5021,22 +5034,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>346</v>
-      </c>
-      <c r="B4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>347</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5044,22 +5057,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5067,22 +5080,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>349</v>
-      </c>
-      <c r="B6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>350</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5090,22 +5103,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -5113,22 +5126,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5136,22 +5149,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5159,22 +5172,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>354</v>
-      </c>
-      <c r="B10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" t="s">
-        <v>342</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>355</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5182,22 +5195,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -5205,22 +5218,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>358</v>
-      </c>
-      <c r="B12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" t="s">
-        <v>342</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>359</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -5228,22 +5241,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>360</v>
-      </c>
-      <c r="B13" t="s">
-        <v>506</v>
-      </c>
-      <c r="C13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>361</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5251,22 +5264,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E14" t="s">
         <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5274,22 +5287,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" t="s">
+        <v>503</v>
+      </c>
+      <c r="D15" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
         <v>364</v>
-      </c>
-      <c r="B15" t="s">
-        <v>506</v>
-      </c>
-      <c r="C15" t="s">
-        <v>504</v>
-      </c>
-      <c r="D15" t="s">
-        <v>342</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>365</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -5297,22 +5310,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E16" t="s">
         <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -5320,22 +5333,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E17" t="s">
         <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -5343,22 +5356,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -5366,22 +5379,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C19" t="s">
+        <v>503</v>
+      </c>
+      <c r="D19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>372</v>
-      </c>
-      <c r="B19" t="s">
-        <v>506</v>
-      </c>
-      <c r="C19" t="s">
-        <v>504</v>
-      </c>
-      <c r="D19" t="s">
-        <v>342</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>373</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -5389,22 +5402,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" t="s">
+        <v>503</v>
+      </c>
+      <c r="D20" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
         <v>374</v>
-      </c>
-      <c r="B20" t="s">
-        <v>506</v>
-      </c>
-      <c r="C20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D20" t="s">
-        <v>342</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>375</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -5412,22 +5425,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" t="s">
+        <v>505</v>
+      </c>
+      <c r="C21" t="s">
+        <v>503</v>
+      </c>
+      <c r="D21" t="s">
+        <v>341</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
         <v>376</v>
-      </c>
-      <c r="B21" t="s">
-        <v>506</v>
-      </c>
-      <c r="C21" t="s">
-        <v>504</v>
-      </c>
-      <c r="D21" t="s">
-        <v>342</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>377</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -5435,22 +5448,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>377</v>
+      </c>
+      <c r="B22" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D22" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>378</v>
-      </c>
-      <c r="B22" t="s">
-        <v>506</v>
-      </c>
-      <c r="C22" t="s">
-        <v>504</v>
-      </c>
-      <c r="D22" t="s">
-        <v>342</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>379</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -5458,22 +5471,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" t="s">
+        <v>503</v>
+      </c>
+      <c r="D23" t="s">
+        <v>341</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>380</v>
-      </c>
-      <c r="B23" t="s">
-        <v>506</v>
-      </c>
-      <c r="C23" t="s">
-        <v>504</v>
-      </c>
-      <c r="D23" t="s">
-        <v>342</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>381</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -5481,22 +5494,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>381</v>
+      </c>
+      <c r="B24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C24" t="s">
+        <v>503</v>
+      </c>
+      <c r="D24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
         <v>382</v>
-      </c>
-      <c r="B24" t="s">
-        <v>506</v>
-      </c>
-      <c r="C24" t="s">
-        <v>504</v>
-      </c>
-      <c r="D24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>383</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -5504,22 +5517,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>383</v>
+      </c>
+      <c r="B25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C25" t="s">
+        <v>503</v>
+      </c>
+      <c r="D25" t="s">
+        <v>341</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
         <v>384</v>
-      </c>
-      <c r="B25" t="s">
-        <v>506</v>
-      </c>
-      <c r="C25" t="s">
-        <v>504</v>
-      </c>
-      <c r="D25" t="s">
-        <v>342</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>385</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -5527,22 +5540,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>385</v>
+      </c>
+      <c r="B26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C26" t="s">
+        <v>503</v>
+      </c>
+      <c r="D26" t="s">
+        <v>341</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
         <v>386</v>
-      </c>
-      <c r="B26" t="s">
-        <v>506</v>
-      </c>
-      <c r="C26" t="s">
-        <v>504</v>
-      </c>
-      <c r="D26" t="s">
-        <v>342</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>387</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -5550,22 +5563,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>387</v>
+      </c>
+      <c r="B27" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
         <v>388</v>
-      </c>
-      <c r="B27" t="s">
-        <v>506</v>
-      </c>
-      <c r="C27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D27" t="s">
-        <v>342</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>389</v>
       </c>
       <c r="G27">
         <v>15</v>
@@ -5573,22 +5586,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G28">
         <v>20</v>
@@ -5596,22 +5609,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C29" t="s">
+        <v>503</v>
+      </c>
+      <c r="D29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
         <v>391</v>
-      </c>
-      <c r="B29" t="s">
-        <v>506</v>
-      </c>
-      <c r="C29" t="s">
-        <v>504</v>
-      </c>
-      <c r="D29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>392</v>
       </c>
       <c r="G29">
         <v>16</v>
@@ -5619,22 +5632,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -5642,22 +5655,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G31">
         <v>32</v>
@@ -5695,10 +5708,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -5715,22 +5728,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
         <v>396</v>
-      </c>
-      <c r="B2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D2" t="s">
-        <v>397</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5738,22 +5751,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>398</v>
-      </c>
-      <c r="B3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>399</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5761,22 +5774,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>400</v>
-      </c>
-      <c r="B4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>401</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5784,22 +5797,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>402</v>
-      </c>
-      <c r="B5" t="s">
-        <v>506</v>
-      </c>
-      <c r="C5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D5" t="s">
-        <v>397</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>403</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5807,22 +5820,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>404</v>
-      </c>
-      <c r="B6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D6" t="s">
-        <v>397</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>405</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5830,22 +5843,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>406</v>
-      </c>
-      <c r="B7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C7" t="s">
-        <v>504</v>
-      </c>
-      <c r="D7" t="s">
-        <v>397</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>407</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5853,22 +5866,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>408</v>
-      </c>
-      <c r="B8" t="s">
-        <v>506</v>
-      </c>
-      <c r="C8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>409</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5876,22 +5889,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>410</v>
-      </c>
-      <c r="B9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C9" t="s">
-        <v>504</v>
-      </c>
-      <c r="D9" t="s">
-        <v>397</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>411</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -5899,22 +5912,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>412</v>
-      </c>
-      <c r="B10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" t="s">
-        <v>397</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>413</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -5922,22 +5935,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E11" t="s">
         <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -5945,22 +5958,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>416</v>
-      </c>
-      <c r="B12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" t="s">
-        <v>397</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>417</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -5968,22 +5981,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E13" t="s">
         <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -5991,22 +6004,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E14" t="s">
         <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -6014,22 +6027,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -6037,22 +6050,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G16">
         <v>18</v>
@@ -6060,22 +6073,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -6083,22 +6096,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -6106,22 +6119,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G19">
         <v>12</v>
@@ -6129,22 +6142,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>426</v>
+      </c>
+      <c r="B20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" t="s">
+        <v>503</v>
+      </c>
+      <c r="D20" t="s">
+        <v>396</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
         <v>427</v>
-      </c>
-      <c r="B20" t="s">
-        <v>506</v>
-      </c>
-      <c r="C20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D20" t="s">
-        <v>397</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>428</v>
       </c>
       <c r="G20">
         <v>12</v>
@@ -6152,22 +6165,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>428</v>
+      </c>
+      <c r="B21" t="s">
+        <v>505</v>
+      </c>
+      <c r="C21" t="s">
+        <v>503</v>
+      </c>
+      <c r="D21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
         <v>429</v>
-      </c>
-      <c r="B21" t="s">
-        <v>506</v>
-      </c>
-      <c r="C21" t="s">
-        <v>504</v>
-      </c>
-      <c r="D21" t="s">
-        <v>397</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>430</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -6175,22 +6188,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -6198,22 +6211,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>395</v>
+      </c>
+      <c r="B23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" t="s">
+        <v>504</v>
+      </c>
+      <c r="D23" t="s">
         <v>396</v>
-      </c>
-      <c r="B23" t="s">
-        <v>506</v>
-      </c>
-      <c r="C23" t="s">
-        <v>505</v>
-      </c>
-      <c r="D23" t="s">
-        <v>397</v>
       </c>
       <c r="E23" t="s">
         <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -6221,22 +6234,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E24" t="s">
         <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -6244,22 +6257,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E25" t="s">
         <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -6267,22 +6280,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G26">
         <v>42</v>
@@ -6290,22 +6303,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>435</v>
+      </c>
+      <c r="B27" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D27" t="s">
+        <v>396</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>436</v>
-      </c>
-      <c r="B27" t="s">
-        <v>506</v>
-      </c>
-      <c r="C27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>437</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6313,22 +6326,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>437</v>
+      </c>
+      <c r="B28" t="s">
+        <v>505</v>
+      </c>
+      <c r="C28" t="s">
+        <v>503</v>
+      </c>
+      <c r="D28" t="s">
+        <v>396</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>438</v>
-      </c>
-      <c r="B28" t="s">
-        <v>506</v>
-      </c>
-      <c r="C28" t="s">
-        <v>504</v>
-      </c>
-      <c r="D28" t="s">
-        <v>397</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>439</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -6336,22 +6349,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C29" t="s">
+        <v>503</v>
+      </c>
+      <c r="D29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>440</v>
-      </c>
-      <c r="B29" t="s">
-        <v>506</v>
-      </c>
-      <c r="C29" t="s">
-        <v>504</v>
-      </c>
-      <c r="D29" t="s">
-        <v>397</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>441</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -6359,22 +6372,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>441</v>
+      </c>
+      <c r="B30" t="s">
+        <v>505</v>
+      </c>
+      <c r="C30" t="s">
+        <v>503</v>
+      </c>
+      <c r="D30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>442</v>
-      </c>
-      <c r="B30" t="s">
-        <v>506</v>
-      </c>
-      <c r="C30" t="s">
-        <v>504</v>
-      </c>
-      <c r="D30" t="s">
-        <v>397</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>443</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -6382,22 +6395,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>443</v>
+      </c>
+      <c r="B31" t="s">
+        <v>505</v>
+      </c>
+      <c r="C31" t="s">
+        <v>503</v>
+      </c>
+      <c r="D31" t="s">
+        <v>396</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
         <v>444</v>
-      </c>
-      <c r="B31" t="s">
-        <v>506</v>
-      </c>
-      <c r="C31" t="s">
-        <v>504</v>
-      </c>
-      <c r="D31" t="s">
-        <v>397</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>445</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -6405,22 +6418,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -6458,10 +6471,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6478,22 +6491,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6501,22 +6514,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -6524,22 +6537,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -6547,22 +6560,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -6570,22 +6583,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -6593,22 +6606,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C7" t="s">
-        <v>504</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6616,22 +6629,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>506</v>
-      </c>
-      <c r="C8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>100</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6639,22 +6652,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C9" t="s">
-        <v>504</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>102</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -6662,22 +6675,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6685,22 +6698,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>106</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -6708,22 +6721,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
         <v>107</v>
-      </c>
-      <c r="B12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>108</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -6731,22 +6744,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>109</v>
-      </c>
-      <c r="B13" t="s">
-        <v>506</v>
-      </c>
-      <c r="C13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>110</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -6754,22 +6767,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6777,22 +6790,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15">
         <v>26</v>
@@ -6800,22 +6813,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C16" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
         <v>113</v>
-      </c>
-      <c r="B16" t="s">
-        <v>506</v>
-      </c>
-      <c r="C16" t="s">
-        <v>504</v>
-      </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>114</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6823,22 +6836,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" t="s">
+        <v>503</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
         <v>115</v>
-      </c>
-      <c r="B17" t="s">
-        <v>506</v>
-      </c>
-      <c r="C17" t="s">
-        <v>504</v>
-      </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>116</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -6846,22 +6859,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18" t="s">
+        <v>503</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
         <v>117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>506</v>
-      </c>
-      <c r="C18" t="s">
-        <v>504</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>118</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -6869,22 +6882,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -6892,22 +6905,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" t="s">
+        <v>503</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>119</v>
-      </c>
-      <c r="B20" t="s">
-        <v>506</v>
-      </c>
-      <c r="C20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>120</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -6915,22 +6928,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>505</v>
+      </c>
+      <c r="C21" t="s">
+        <v>503</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>121</v>
-      </c>
-      <c r="B21" t="s">
-        <v>506</v>
-      </c>
-      <c r="C21" t="s">
-        <v>504</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>122</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -6938,22 +6951,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>124</v>
-      </c>
-      <c r="B22" t="s">
-        <v>506</v>
-      </c>
-      <c r="C22" t="s">
-        <v>504</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>125</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6991,10 +7004,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -7011,22 +7024,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
         <v>231</v>
       </c>
-      <c r="B2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>232</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>233</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7034,22 +7047,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>234</v>
-      </c>
-      <c r="B3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>235</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -7057,22 +7070,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -7080,22 +7093,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -7103,22 +7116,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7126,22 +7139,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>240</v>
-      </c>
-      <c r="B7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C7" t="s">
-        <v>504</v>
-      </c>
-      <c r="D7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>241</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -7149,22 +7162,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -7172,22 +7185,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>243</v>
-      </c>
-      <c r="B9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C9" t="s">
-        <v>504</v>
-      </c>
-      <c r="D9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>244</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -7195,22 +7208,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>245</v>
-      </c>
-      <c r="B10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>246</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -7218,22 +7231,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>247</v>
-      </c>
-      <c r="B11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>248</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -7241,22 +7254,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>249</v>
-      </c>
-      <c r="B12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" t="s">
-        <v>232</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>250</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -7264,22 +7277,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>251</v>
-      </c>
-      <c r="B13" t="s">
-        <v>506</v>
-      </c>
-      <c r="C13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D13" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>252</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -7287,22 +7300,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -7310,22 +7323,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G15">
         <v>17</v>
@@ -7333,22 +7346,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G16">
         <v>12</v>
@@ -7356,22 +7369,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" t="s">
+        <v>503</v>
+      </c>
+      <c r="D17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>257</v>
-      </c>
-      <c r="B17" t="s">
-        <v>506</v>
-      </c>
-      <c r="C17" t="s">
-        <v>504</v>
-      </c>
-      <c r="D17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>258</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -7379,22 +7392,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18" t="s">
+        <v>503</v>
+      </c>
+      <c r="D18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>259</v>
-      </c>
-      <c r="B18" t="s">
-        <v>506</v>
-      </c>
-      <c r="C18" t="s">
-        <v>504</v>
-      </c>
-      <c r="D18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>260</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -7402,22 +7415,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C19" t="s">
+        <v>503</v>
+      </c>
+      <c r="D19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>261</v>
-      </c>
-      <c r="B19" t="s">
-        <v>506</v>
-      </c>
-      <c r="C19" t="s">
-        <v>504</v>
-      </c>
-      <c r="D19" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>262</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -7425,22 +7438,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" t="s">
+        <v>503</v>
+      </c>
+      <c r="D20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
         <v>263</v>
-      </c>
-      <c r="B20" t="s">
-        <v>506</v>
-      </c>
-      <c r="C20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D20" t="s">
-        <v>232</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>264</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -7448,22 +7461,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" t="s">
+        <v>505</v>
+      </c>
+      <c r="C21" t="s">
+        <v>503</v>
+      </c>
+      <c r="D21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>265</v>
-      </c>
-      <c r="B21" t="s">
-        <v>506</v>
-      </c>
-      <c r="C21" t="s">
-        <v>504</v>
-      </c>
-      <c r="D21" t="s">
-        <v>232</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>266</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -7471,22 +7484,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>267</v>
-      </c>
-      <c r="B22" t="s">
-        <v>506</v>
-      </c>
-      <c r="C22" t="s">
-        <v>504</v>
-      </c>
-      <c r="D22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>268</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -7494,22 +7507,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -7517,22 +7530,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G24">
         <v>14</v>
@@ -7540,22 +7553,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C25" t="s">
+        <v>503</v>
+      </c>
+      <c r="D25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
         <v>271</v>
-      </c>
-      <c r="B25" t="s">
-        <v>506</v>
-      </c>
-      <c r="C25" t="s">
-        <v>504</v>
-      </c>
-      <c r="D25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>272</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -7563,22 +7576,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C26" t="s">
+        <v>503</v>
+      </c>
+      <c r="D26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
         <v>273</v>
-      </c>
-      <c r="B26" t="s">
-        <v>506</v>
-      </c>
-      <c r="C26" t="s">
-        <v>504</v>
-      </c>
-      <c r="D26" t="s">
-        <v>232</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>274</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -7586,22 +7599,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
         <v>275</v>
-      </c>
-      <c r="B27" t="s">
-        <v>506</v>
-      </c>
-      <c r="C27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>276</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -7609,22 +7622,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E28" t="s">
         <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -7632,22 +7645,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -7655,22 +7668,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" t="s">
+        <v>505</v>
+      </c>
+      <c r="C30" t="s">
+        <v>503</v>
+      </c>
+      <c r="D30" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>281</v>
-      </c>
-      <c r="B30" t="s">
-        <v>506</v>
-      </c>
-      <c r="C30" t="s">
-        <v>504</v>
-      </c>
-      <c r="D30" t="s">
-        <v>232</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>282</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -7678,22 +7691,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G31">
         <v>15</v>
@@ -7701,22 +7714,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -7724,22 +7737,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C33" t="s">
+        <v>503</v>
+      </c>
+      <c r="D33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>285</v>
-      </c>
-      <c r="B33" t="s">
-        <v>506</v>
-      </c>
-      <c r="C33" t="s">
-        <v>504</v>
-      </c>
-      <c r="D33" t="s">
-        <v>232</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>286</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -7747,22 +7760,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" t="s">
+        <v>505</v>
+      </c>
+      <c r="C34" t="s">
+        <v>503</v>
+      </c>
+      <c r="D34" t="s">
+        <v>231</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
         <v>287</v>
-      </c>
-      <c r="B34" t="s">
-        <v>506</v>
-      </c>
-      <c r="C34" t="s">
-        <v>504</v>
-      </c>
-      <c r="D34" t="s">
-        <v>232</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s">
-        <v>288</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -7770,22 +7783,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" t="s">
+        <v>505</v>
+      </c>
+      <c r="C35" t="s">
+        <v>503</v>
+      </c>
+      <c r="D35" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
         <v>289</v>
-      </c>
-      <c r="B35" t="s">
-        <v>506</v>
-      </c>
-      <c r="C35" t="s">
-        <v>504</v>
-      </c>
-      <c r="D35" t="s">
-        <v>232</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>290</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -7793,22 +7806,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" t="s">
+        <v>505</v>
+      </c>
+      <c r="C36" t="s">
+        <v>503</v>
+      </c>
+      <c r="D36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
         <v>291</v>
-      </c>
-      <c r="B36" t="s">
-        <v>506</v>
-      </c>
-      <c r="C36" t="s">
-        <v>504</v>
-      </c>
-      <c r="D36" t="s">
-        <v>232</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" t="s">
-        <v>292</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -7816,22 +7829,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C37" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E37" t="s">
         <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -7839,22 +7852,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38" t="s">
+        <v>505</v>
+      </c>
+      <c r="C38" t="s">
+        <v>503</v>
+      </c>
+      <c r="D38" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>295</v>
-      </c>
-      <c r="B38" t="s">
-        <v>506</v>
-      </c>
-      <c r="C38" t="s">
-        <v>504</v>
-      </c>
-      <c r="D38" t="s">
-        <v>232</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>296</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -7862,22 +7875,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" t="s">
+        <v>505</v>
+      </c>
+      <c r="C39" t="s">
+        <v>503</v>
+      </c>
+      <c r="D39" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>297</v>
-      </c>
-      <c r="B39" t="s">
-        <v>506</v>
-      </c>
-      <c r="C39" t="s">
-        <v>504</v>
-      </c>
-      <c r="D39" t="s">
-        <v>232</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>298</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -7885,22 +7898,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -7908,22 +7921,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41" t="s">
+        <v>505</v>
+      </c>
+      <c r="C41" t="s">
+        <v>503</v>
+      </c>
+      <c r="D41" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>301</v>
-      </c>
-      <c r="B41" t="s">
-        <v>506</v>
-      </c>
-      <c r="C41" t="s">
-        <v>504</v>
-      </c>
-      <c r="D41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>302</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -7931,22 +7944,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>302</v>
+      </c>
+      <c r="B42" t="s">
+        <v>505</v>
+      </c>
+      <c r="C42" t="s">
+        <v>503</v>
+      </c>
+      <c r="D42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>303</v>
-      </c>
-      <c r="B42" t="s">
-        <v>506</v>
-      </c>
-      <c r="C42" t="s">
-        <v>504</v>
-      </c>
-      <c r="D42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" t="s">
-        <v>304</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -7954,22 +7967,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" t="s">
+        <v>505</v>
+      </c>
+      <c r="C43" t="s">
+        <v>503</v>
+      </c>
+      <c r="D43" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>305</v>
-      </c>
-      <c r="B43" t="s">
-        <v>506</v>
-      </c>
-      <c r="C43" t="s">
-        <v>504</v>
-      </c>
-      <c r="D43" t="s">
-        <v>232</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>306</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -7977,22 +7990,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>306</v>
+      </c>
+      <c r="B44" t="s">
+        <v>505</v>
+      </c>
+      <c r="C44" t="s">
+        <v>503</v>
+      </c>
+      <c r="D44" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>307</v>
-      </c>
-      <c r="B44" t="s">
-        <v>506</v>
-      </c>
-      <c r="C44" t="s">
-        <v>504</v>
-      </c>
-      <c r="D44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>308</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -8000,22 +8013,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>308</v>
+      </c>
+      <c r="B45" t="s">
+        <v>505</v>
+      </c>
+      <c r="C45" t="s">
+        <v>503</v>
+      </c>
+      <c r="D45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>309</v>
-      </c>
-      <c r="B45" t="s">
-        <v>506</v>
-      </c>
-      <c r="C45" t="s">
-        <v>504</v>
-      </c>
-      <c r="D45" t="s">
-        <v>232</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>310</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -8023,22 +8036,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>310</v>
+      </c>
+      <c r="B46" t="s">
+        <v>505</v>
+      </c>
+      <c r="C46" t="s">
+        <v>503</v>
+      </c>
+      <c r="D46" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
         <v>311</v>
-      </c>
-      <c r="B46" t="s">
-        <v>506</v>
-      </c>
-      <c r="C46" t="s">
-        <v>504</v>
-      </c>
-      <c r="D46" t="s">
-        <v>232</v>
-      </c>
-      <c r="E46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" t="s">
-        <v>312</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -8046,22 +8059,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>312</v>
+      </c>
+      <c r="B47" t="s">
+        <v>505</v>
+      </c>
+      <c r="C47" t="s">
+        <v>503</v>
+      </c>
+      <c r="D47" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>313</v>
-      </c>
-      <c r="B47" t="s">
-        <v>506</v>
-      </c>
-      <c r="C47" t="s">
-        <v>504</v>
-      </c>
-      <c r="D47" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>314</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -8069,22 +8082,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>314</v>
+      </c>
+      <c r="B48" t="s">
+        <v>505</v>
+      </c>
+      <c r="C48" t="s">
+        <v>503</v>
+      </c>
+      <c r="D48" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
         <v>315</v>
-      </c>
-      <c r="B48" t="s">
-        <v>506</v>
-      </c>
-      <c r="C48" t="s">
-        <v>504</v>
-      </c>
-      <c r="D48" t="s">
-        <v>232</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>316</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -8092,22 +8105,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>316</v>
+      </c>
+      <c r="B49" t="s">
+        <v>505</v>
+      </c>
+      <c r="C49" t="s">
+        <v>503</v>
+      </c>
+      <c r="D49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
         <v>317</v>
-      </c>
-      <c r="B49" t="s">
-        <v>506</v>
-      </c>
-      <c r="C49" t="s">
-        <v>504</v>
-      </c>
-      <c r="D49" t="s">
-        <v>232</v>
-      </c>
-      <c r="E49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" t="s">
-        <v>318</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -8115,22 +8128,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" t="s">
+        <v>505</v>
+      </c>
+      <c r="C50" t="s">
+        <v>503</v>
+      </c>
+      <c r="D50" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
         <v>319</v>
-      </c>
-      <c r="B50" t="s">
-        <v>506</v>
-      </c>
-      <c r="C50" t="s">
-        <v>504</v>
-      </c>
-      <c r="D50" t="s">
-        <v>232</v>
-      </c>
-      <c r="E50" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" t="s">
-        <v>320</v>
       </c>
       <c r="G50">
         <v>9</v>
@@ -8138,22 +8151,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>320</v>
+      </c>
+      <c r="B51" t="s">
+        <v>505</v>
+      </c>
+      <c r="C51" t="s">
+        <v>503</v>
+      </c>
+      <c r="D51" t="s">
+        <v>231</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
         <v>321</v>
-      </c>
-      <c r="B51" t="s">
-        <v>506</v>
-      </c>
-      <c r="C51" t="s">
-        <v>504</v>
-      </c>
-      <c r="D51" t="s">
-        <v>232</v>
-      </c>
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
-        <v>322</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -8161,22 +8174,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" t="s">
+        <v>505</v>
+      </c>
+      <c r="C52" t="s">
+        <v>503</v>
+      </c>
+      <c r="D52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
         <v>323</v>
-      </c>
-      <c r="B52" t="s">
-        <v>506</v>
-      </c>
-      <c r="C52" t="s">
-        <v>504</v>
-      </c>
-      <c r="D52" t="s">
-        <v>232</v>
-      </c>
-      <c r="E52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" t="s">
-        <v>324</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -8184,22 +8197,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>324</v>
+      </c>
+      <c r="B53" t="s">
+        <v>505</v>
+      </c>
+      <c r="C53" t="s">
+        <v>503</v>
+      </c>
+      <c r="D53" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>325</v>
-      </c>
-      <c r="B53" t="s">
-        <v>506</v>
-      </c>
-      <c r="C53" t="s">
-        <v>504</v>
-      </c>
-      <c r="D53" t="s">
-        <v>232</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>326</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -8207,22 +8220,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B54" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C54" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -8230,22 +8243,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>328</v>
+      </c>
+      <c r="B55" t="s">
+        <v>505</v>
+      </c>
+      <c r="C55" t="s">
+        <v>503</v>
+      </c>
+      <c r="D55" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s">
         <v>329</v>
-      </c>
-      <c r="B55" t="s">
-        <v>506</v>
-      </c>
-      <c r="C55" t="s">
-        <v>504</v>
-      </c>
-      <c r="D55" t="s">
-        <v>232</v>
-      </c>
-      <c r="E55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" t="s">
-        <v>330</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -8253,22 +8266,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B56" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C56" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E56" t="s">
         <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -8276,22 +8289,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>332</v>
+      </c>
+      <c r="B57" t="s">
+        <v>505</v>
+      </c>
+      <c r="C57" t="s">
+        <v>503</v>
+      </c>
+      <c r="D57" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
         <v>333</v>
-      </c>
-      <c r="B57" t="s">
-        <v>506</v>
-      </c>
-      <c r="C57" t="s">
-        <v>504</v>
-      </c>
-      <c r="D57" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" t="s">
-        <v>334</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -8299,22 +8312,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B58" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E58" t="s">
         <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -8322,22 +8335,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C59" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E59" t="s">
         <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -8345,22 +8358,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B60" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E60" t="s">
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -8368,22 +8381,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C61" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E61" t="s">
         <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -8420,10 +8433,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8440,22 +8453,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
         <v>447</v>
-      </c>
-      <c r="B2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D2" t="s">
-        <v>448</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -8463,22 +8476,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>450</v>
-      </c>
-      <c r="B3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>451</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -8486,22 +8499,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -8509,22 +8522,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>454</v>
-      </c>
-      <c r="B5" t="s">
-        <v>506</v>
-      </c>
-      <c r="C5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D5" t="s">
-        <v>448</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>455</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -8532,22 +8545,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>456</v>
-      </c>
-      <c r="B6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>457</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -8555,22 +8568,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -8578,22 +8591,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>460</v>
-      </c>
-      <c r="B8" t="s">
-        <v>506</v>
-      </c>
-      <c r="C8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>461</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -8601,22 +8614,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>462</v>
-      </c>
-      <c r="B9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C9" t="s">
-        <v>504</v>
-      </c>
-      <c r="D9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>463</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8624,22 +8637,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>464</v>
-      </c>
-      <c r="B10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" t="s">
-        <v>448</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>465</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -8647,22 +8660,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
         <v>466</v>
-      </c>
-      <c r="B11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" t="s">
-        <v>448</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>467</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8670,22 +8683,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" t="s">
+        <v>447</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
         <v>468</v>
-      </c>
-      <c r="B12" t="s">
-        <v>506</v>
-      </c>
-      <c r="C12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>469</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -8693,22 +8706,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -8716,22 +8729,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B14" t="s">
+        <v>505</v>
+      </c>
+      <c r="C14" t="s">
+        <v>503</v>
+      </c>
+      <c r="D14" t="s">
+        <v>447</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
         <v>472</v>
-      </c>
-      <c r="B14" t="s">
-        <v>506</v>
-      </c>
-      <c r="C14" t="s">
-        <v>504</v>
-      </c>
-      <c r="D14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>473</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -8739,22 +8752,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" t="s">
+        <v>503</v>
+      </c>
+      <c r="D15" t="s">
+        <v>447</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
         <v>474</v>
-      </c>
-      <c r="B15" t="s">
-        <v>506</v>
-      </c>
-      <c r="C15" t="s">
-        <v>504</v>
-      </c>
-      <c r="D15" t="s">
-        <v>448</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>475</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -8762,22 +8775,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>475</v>
+      </c>
+      <c r="B16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C16" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16" t="s">
+        <v>447</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>476</v>
-      </c>
-      <c r="B16" t="s">
-        <v>506</v>
-      </c>
-      <c r="C16" t="s">
-        <v>504</v>
-      </c>
-      <c r="D16" t="s">
-        <v>448</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>477</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -8785,22 +8798,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" t="s">
+        <v>503</v>
+      </c>
+      <c r="D17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
         <v>478</v>
-      </c>
-      <c r="B17" t="s">
-        <v>506</v>
-      </c>
-      <c r="C17" t="s">
-        <v>504</v>
-      </c>
-      <c r="D17" t="s">
-        <v>448</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>479</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -8808,22 +8821,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18" t="s">
+        <v>503</v>
+      </c>
+      <c r="D18" t="s">
+        <v>447</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
         <v>480</v>
-      </c>
-      <c r="B18" t="s">
-        <v>506</v>
-      </c>
-      <c r="C18" t="s">
-        <v>504</v>
-      </c>
-      <c r="D18" t="s">
-        <v>448</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>481</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -8831,22 +8844,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -8854,22 +8867,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>482</v>
+      </c>
+      <c r="B20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" t="s">
+        <v>503</v>
+      </c>
+      <c r="D20" t="s">
+        <v>447</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
         <v>483</v>
-      </c>
-      <c r="B20" t="s">
-        <v>506</v>
-      </c>
-      <c r="C20" t="s">
-        <v>504</v>
-      </c>
-      <c r="D20" t="s">
-        <v>448</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>484</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -8877,22 +8890,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E21" t="s">
         <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -8900,22 +8913,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>486</v>
+      </c>
+      <c r="B22" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D22" t="s">
+        <v>447</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
         <v>487</v>
-      </c>
-      <c r="B22" t="s">
-        <v>506</v>
-      </c>
-      <c r="C22" t="s">
-        <v>504</v>
-      </c>
-      <c r="D22" t="s">
-        <v>448</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>488</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -8923,22 +8936,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E23" t="s">
         <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -8946,22 +8959,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -8969,22 +8982,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G25">
         <v>20</v>
@@ -8992,22 +9005,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G26">
         <v>15</v>
@@ -9015,22 +9028,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>493</v>
+      </c>
+      <c r="B27" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
         <v>494</v>
-      </c>
-      <c r="B27" t="s">
-        <v>506</v>
-      </c>
-      <c r="C27" t="s">
-        <v>505</v>
-      </c>
-      <c r="D27" t="s">
-        <v>448</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>495</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -9038,22 +9051,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -9061,22 +9074,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -9084,22 +9097,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -9107,22 +9120,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -9130,22 +9143,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>499</v>
+      </c>
+      <c r="B32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C32" t="s">
+        <v>503</v>
+      </c>
+      <c r="D32" t="s">
+        <v>447</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
         <v>500</v>
-      </c>
-      <c r="B32" t="s">
-        <v>506</v>
-      </c>
-      <c r="C32" t="s">
-        <v>504</v>
-      </c>
-      <c r="D32" t="s">
-        <v>448</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" t="s">
-        <v>501</v>
       </c>
       <c r="G32">
         <v>6</v>

--- a/resources/Zinnfiguren/Zinnfigurenliste.xlsx
+++ b/resources/Zinnfiguren/Zinnfigurenliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\projects\ArmyBuilder\sourcecode\resources\Zinnfiguren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F848134C-C405-4727-87C7-8AE95AA36068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E6808-3185-415C-9788-ED5158DA719C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="Skaven" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hochelfen!$A$1:$H$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hochelfen!$A$1:$H$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Zwerge!$A$1:$G$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="559">
   <si>
     <t>Anzahl</t>
   </si>
@@ -1704,6 +1704,21 @@
   </si>
   <si>
     <t>HighElf_RepeatingBolder_bemalt.JPG</t>
+  </si>
+  <si>
+    <t>HighElf_SeaGuardOfLothern_bemalt.JPG</t>
+  </si>
+  <si>
+    <t>HighElf_SeaGuardOfLothern_Champion_bemalt.JPG</t>
+  </si>
+  <si>
+    <t>HighElf_SeaGuardOfLothern_Musician_bemalt.JPG</t>
+  </si>
+  <si>
+    <t>HighElf_SeaGuardOfLothern_StandardBearer_bemalt.JPG</t>
+  </si>
+  <si>
+    <t>Champion der Seegarde von Lothern</t>
   </si>
 </sst>
 </file>
@@ -2260,12 +2275,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2275,7 +2289,7 @@
     <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2305,7 +2319,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2331,7 +2345,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2451,30 +2465,15 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+        <v>558</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>505</v>
@@ -2489,15 +2488,15 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>505</v>
@@ -2509,21 +2508,18 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>505</v>
@@ -2538,18 +2534,18 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>505</v>
@@ -2561,21 +2557,21 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>520</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>505</v>
@@ -2587,19 +2583,19 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>520</v>
       </c>
@@ -2607,7 +2603,7 @@
         <v>505</v>
       </c>
       <c r="C14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -2616,44 +2612,44 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G14">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>520</v>
       </c>
       <c r="B15" t="s">
         <v>505</v>
       </c>
       <c r="C15" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>505</v>
@@ -2668,7 +2664,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2677,9 +2673,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>505</v>
@@ -2694,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2703,41 +2699,41 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>526</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>505</v>
       </c>
       <c r="C18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G18">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B19" t="s">
         <v>505</v>
       </c>
       <c r="C19" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -2746,21 +2742,21 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>521</v>
       </c>
       <c r="B20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C20" t="s">
         <v>503</v>
@@ -2772,21 +2768,21 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>545</v>
+        <v>67</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C21" t="s">
         <v>503</v>
@@ -2795,21 +2791,21 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>545</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>505</v>
@@ -2821,10 +2817,10 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2835,7 +2831,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>505</v>
@@ -2850,15 +2846,18 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
         <v>505</v>
@@ -2873,18 +2872,15 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>505</v>
@@ -2899,7 +2895,7 @@
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2908,9 +2904,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>505</v>
@@ -2925,7 +2921,7 @@
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2934,9 +2930,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>522</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>505</v>
@@ -2951,21 +2947,21 @@
         <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>522</v>
       </c>
       <c r="B28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C28" t="s">
         <v>503</v>
@@ -2977,21 +2973,21 @@
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>546</v>
+        <v>68</v>
       </c>
       <c r="G28">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>522</v>
       </c>
       <c r="B29" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C29" t="s">
         <v>503</v>
@@ -3000,13 +2996,13 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>546</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
         <v>544</v>
@@ -3014,7 +3010,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>505</v>
@@ -3026,13 +3022,13 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
         <v>544</v>
@@ -3042,34 +3038,34 @@
       <c r="A31" t="s">
         <v>361</v>
       </c>
+      <c r="B31" t="s">
+        <v>505</v>
+      </c>
+      <c r="C31" t="s">
+        <v>503</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
       <c r="F31" t="s">
-        <v>553</v>
+        <v>61</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>505</v>
-      </c>
-      <c r="C32" t="s">
-        <v>503</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>65</v>
+        <v>361</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>553</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3078,9 +3074,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>524</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>505</v>
@@ -3092,24 +3088,24 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>524</v>
       </c>
       <c r="B34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C34" t="s">
         <v>503</v>
@@ -3121,21 +3117,21 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>547</v>
+        <v>70</v>
       </c>
       <c r="G34">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>524</v>
       </c>
       <c r="B35" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C35" t="s">
         <v>503</v>
@@ -3147,18 +3143,18 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>547</v>
       </c>
       <c r="G35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>523</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>505</v>
@@ -3173,21 +3169,21 @@
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>523</v>
       </c>
       <c r="B37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C37" t="s">
         <v>503</v>
@@ -3199,21 +3195,21 @@
         <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>548</v>
+        <v>69</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H37" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B38" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C38" t="s">
         <v>503</v>
@@ -3225,90 +3221,42 @@
         <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>548</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>525</v>
-      </c>
-      <c r="B39" t="s">
-        <v>506</v>
-      </c>
-      <c r="C39" t="s">
-        <v>503</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>29</v>
+        <v>523</v>
       </c>
       <c r="F39" t="s">
-        <v>549</v>
-      </c>
-      <c r="G39">
-        <v>8</v>
-      </c>
-      <c r="H39" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>505</v>
-      </c>
-      <c r="C40" t="s">
-        <v>503</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
-        <v>29</v>
+        <v>523</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>505</v>
-      </c>
-      <c r="C41" t="s">
-        <v>503</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>29</v>
+        <v>523</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>525</v>
       </c>
       <c r="B42" t="s">
         <v>505</v>
@@ -3323,21 +3271,21 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>525</v>
       </c>
       <c r="B43" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C43" t="s">
         <v>503</v>
@@ -3349,10 +3297,10 @@
         <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H43" t="s">
         <v>544</v>
@@ -3360,7 +3308,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>505</v>
@@ -3375,15 +3323,18 @@
         <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G44">
         <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
         <v>505</v>
@@ -3398,15 +3349,18 @@
         <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G45">
         <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
         <v>505</v>
@@ -3421,18 +3375,21 @@
         <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="C47" t="s">
         <v>503</v>
@@ -3444,15 +3401,18 @@
         <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>550</v>
       </c>
       <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
         <v>505</v>
@@ -3464,10 +3424,10 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3476,9 +3436,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>543</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>505</v>
@@ -3490,10 +3450,10 @@
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3502,9 +3462,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
         <v>505</v>
@@ -3516,10 +3476,10 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -3528,9 +3488,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
         <v>505</v>
@@ -3545,18 +3505,18 @@
         <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G51">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>527</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
         <v>505</v>
@@ -3568,10 +3528,10 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -3580,12 +3540,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="B53" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C53" t="s">
         <v>503</v>
@@ -3594,32 +3554,130 @@
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>551</v>
+        <v>60</v>
       </c>
       <c r="G53">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="111" spans="7:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="7:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>505</v>
+      </c>
+      <c r="C54" t="s">
+        <v>503</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>505</v>
+      </c>
+      <c r="C55" t="s">
+        <v>503</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>527</v>
+      </c>
+      <c r="B56" t="s">
+        <v>505</v>
+      </c>
+      <c r="C56" t="s">
+        <v>503</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>527</v>
+      </c>
+      <c r="B57" t="s">
+        <v>506</v>
+      </c>
+      <c r="C57" t="s">
+        <v>503</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>551</v>
+      </c>
+      <c r="G57">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="7:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:H53" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="Test"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G53">
-    <sortCondition ref="A2:A53"/>
+  <autoFilter ref="A1:H57" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H116">
+    <sortCondition ref="A2:A116"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/resources/Zinnfiguren/Zinnfigurenliste.xlsx
+++ b/resources/Zinnfiguren/Zinnfigurenliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\projects\ArmyBuilder\sourcecode\resources\Zinnfiguren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E6808-3185-415C-9788-ED5158DA719C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBEE1CB-4C75-482D-A835-601B9DDAD100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="330" windowWidth="7725" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Skaven" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hochelfen!$A$1:$H$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hochelfen!$A$1:$H$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Zwerge!$A$1:$G$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="562">
   <si>
     <t>Anzahl</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Champion der Silberhelme</t>
   </si>
   <si>
-    <t>HighElf_SilverHelm_Fighter.jpg</t>
-  </si>
-  <si>
     <t>Standartenträger der Silberhelme</t>
   </si>
   <si>
@@ -1703,9 +1700,6 @@
     <t>Verwendung</t>
   </si>
   <si>
-    <t>HighElf_RepeatingBolder_bemalt.JPG</t>
-  </si>
-  <si>
     <t>HighElf_SeaGuardOfLothern_bemalt.JPG</t>
   </si>
   <si>
@@ -1719,6 +1713,21 @@
   </si>
   <si>
     <t>Champion der Seegarde von Lothern</t>
+  </si>
+  <si>
+    <t>HighElf_Champion_with_Sword_bemalt.JPG</t>
+  </si>
+  <si>
+    <t>HighElf_Dragon.jpg</t>
+  </si>
+  <si>
+    <t>HighElf_RepeatingBolter_bemalt.JPG</t>
+  </si>
+  <si>
+    <t>HighElf_SilverHelmFighter.jpg</t>
+  </si>
+  <si>
+    <t>HighElf_Fighter2_Sword_Dagger.jpg</t>
   </si>
 </sst>
 </file>
@@ -2141,15 +2150,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2">
         <v>162</v>
@@ -2179,7 +2188,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4">
         <v>178</v>
@@ -2194,7 +2203,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5">
         <v>136</v>
@@ -2209,7 +2218,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B6">
         <v>166</v>
@@ -2224,7 +2233,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>103</v>
@@ -2239,7 +2248,7 @@
     </row>
     <row r="8" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2">
         <v>246</v>
@@ -2275,11 +2284,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2298,10 +2307,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2316,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2324,10 +2333,10 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -2342,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2350,10 +2359,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -2368,30 +2377,33 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2399,10 +2411,10 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -2419,64 +2431,88 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>519</v>
+      </c>
+      <c r="B8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>555</v>
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>519</v>
       </c>
       <c r="B9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C9" t="s">
         <v>503</v>
@@ -2485,151 +2521,112 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
       <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>542</v>
       </c>
       <c r="B11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>505</v>
-      </c>
-      <c r="C12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13">
         <v>9</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>520</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>520</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -2638,24 +2635,24 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G15">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -2664,24 +2661,24 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -2690,117 +2687,90 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
-        <v>544</v>
-      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>505</v>
-      </c>
-      <c r="C18" t="s">
-        <v>503</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>526</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G19">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>521</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>521</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>545</v>
+        <v>65</v>
       </c>
       <c r="G21">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2808,10 +2778,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -2826,18 +2796,18 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>520</v>
       </c>
       <c r="B23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -2846,24 +2816,24 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -2872,21 +2842,24 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -2895,24 +2868,24 @@
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>520</v>
       </c>
       <c r="B26" t="s">
         <v>505</v>
       </c>
       <c r="C26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -2921,24 +2894,24 @@
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>544</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -2947,24 +2920,21 @@
         <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>544</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -2973,24 +2943,24 @@
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28">
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -2999,13 +2969,13 @@
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G29">
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3013,10 +2983,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -3031,136 +3001,100 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>361</v>
-      </c>
-      <c r="B31" t="s">
-        <v>505</v>
-      </c>
-      <c r="C31" t="s">
-        <v>503</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>59</v>
+        <v>360</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>559</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>360</v>
+      </c>
+      <c r="B32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" t="s">
+        <v>502</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>553</v>
+        <v>60</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>522</v>
       </c>
       <c r="B33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>524</v>
-      </c>
-      <c r="B34" t="s">
-        <v>505</v>
-      </c>
-      <c r="C34" t="s">
-        <v>503</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="H34" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>524</v>
-      </c>
-      <c r="B35" t="s">
-        <v>506</v>
-      </c>
-      <c r="C35" t="s">
-        <v>503</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
+        <v>556</v>
       </c>
       <c r="F35" t="s">
-        <v>547</v>
-      </c>
-      <c r="G35">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -3169,50 +3103,32 @@
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G36">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>523</v>
-      </c>
-      <c r="B37" t="s">
-        <v>505</v>
-      </c>
-      <c r="C37" t="s">
-        <v>503</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>523</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -3221,48 +3137,84 @@
         <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>548</v>
+        <v>54</v>
       </c>
       <c r="G38">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F39" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>523</v>
+        <v>522</v>
+      </c>
+      <c r="B40" t="s">
+        <v>505</v>
+      </c>
+      <c r="C40" t="s">
+        <v>502</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>556</v>
+        <v>547</v>
+      </c>
+      <c r="G40">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>523</v>
       </c>
+      <c r="B41" t="s">
+        <v>504</v>
+      </c>
+      <c r="C41" t="s">
+        <v>502</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
       <c r="F41" t="s">
-        <v>557</v>
+        <v>69</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B42" t="s">
         <v>505</v>
       </c>
       <c r="C42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
@@ -3271,24 +3223,24 @@
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>546</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B43" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
@@ -3297,50 +3249,47 @@
         <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>549</v>
+        <v>70</v>
       </c>
       <c r="G43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>560</v>
       </c>
       <c r="G44">
         <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -3349,24 +3298,24 @@
         <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>524</v>
       </c>
       <c r="B46" t="s">
         <v>505</v>
       </c>
       <c r="C46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -3375,21 +3324,21 @@
         <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>525</v>
       </c>
       <c r="B47" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C47" t="s">
         <v>503</v>
@@ -3401,24 +3350,24 @@
         <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>550</v>
+        <v>71</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H47" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -3427,24 +3376,24 @@
         <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="C49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
@@ -3453,24 +3402,24 @@
         <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>549</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -3479,91 +3428,91 @@
         <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H50" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C51" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>526</v>
       </c>
       <c r="B52" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C52" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="B53" t="s">
         <v>505</v>
       </c>
       <c r="C53" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>550</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3571,10 +3520,10 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C54" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
@@ -3589,18 +3538,18 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C55" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -3609,50 +3558,47 @@
         <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G55">
         <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>527</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C56" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="G56">
         <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>527</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C57" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -3661,23 +3607,101 @@
         <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>551</v>
+        <v>30</v>
       </c>
       <c r="G57">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="115" spans="7:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="7:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>504</v>
+      </c>
+      <c r="C58" t="s">
+        <v>502</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>504</v>
+      </c>
+      <c r="C59" t="s">
+        <v>502</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>504</v>
+      </c>
+      <c r="C60" t="s">
+        <v>502</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="118" spans="7:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="7:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:H57" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H116">
-    <sortCondition ref="A2:A116"/>
+  <autoFilter ref="A1:H60" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H119">
+    <sortCondition ref="F2:F119"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -3710,10 +3734,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3730,22 +3754,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>220</v>
-      </c>
-      <c r="B2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -3753,22 +3777,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>199</v>
-      </c>
-      <c r="B3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>200</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -3776,22 +3800,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -3799,22 +3823,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3822,22 +3846,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
         <v>152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>153</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3845,22 +3869,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>168</v>
-      </c>
-      <c r="B7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C7" t="s">
-        <v>503</v>
-      </c>
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>169</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3868,22 +3892,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>211</v>
-      </c>
-      <c r="B8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>212</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -3891,22 +3915,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>197</v>
-      </c>
-      <c r="B9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" t="s">
-        <v>503</v>
-      </c>
-      <c r="D9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>198</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3914,22 +3938,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>195</v>
-      </c>
-      <c r="B10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>196</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3937,22 +3961,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>150</v>
-      </c>
-      <c r="B11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C11" t="s">
-        <v>503</v>
-      </c>
-      <c r="D11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>151</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -3960,22 +3984,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>140</v>
-      </c>
-      <c r="B12" t="s">
-        <v>505</v>
-      </c>
-      <c r="C12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>141</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -3983,22 +4007,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>142</v>
-      </c>
-      <c r="B13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13" t="s">
-        <v>503</v>
-      </c>
-      <c r="D13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>143</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4006,22 +4030,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" t="s">
+        <v>502</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
         <v>216</v>
-      </c>
-      <c r="B14" t="s">
-        <v>505</v>
-      </c>
-      <c r="C14" t="s">
-        <v>503</v>
-      </c>
-      <c r="D14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>217</v>
       </c>
       <c r="G14">
         <v>16</v>
@@ -4029,22 +4053,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" t="s">
+        <v>502</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
         <v>172</v>
-      </c>
-      <c r="B15" t="s">
-        <v>505</v>
-      </c>
-      <c r="C15" t="s">
-        <v>503</v>
-      </c>
-      <c r="D15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>173</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4052,22 +4076,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -4075,22 +4099,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>201</v>
-      </c>
-      <c r="B17" t="s">
-        <v>505</v>
-      </c>
-      <c r="C17" t="s">
-        <v>503</v>
-      </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>202</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -4098,22 +4122,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
         <v>203</v>
-      </c>
-      <c r="B18" t="s">
-        <v>505</v>
-      </c>
-      <c r="C18" t="s">
-        <v>503</v>
-      </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>204</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -4121,22 +4145,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C19" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
         <v>205</v>
-      </c>
-      <c r="B19" t="s">
-        <v>505</v>
-      </c>
-      <c r="C19" t="s">
-        <v>503</v>
-      </c>
-      <c r="D19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>206</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -4144,22 +4168,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" t="s">
+        <v>502</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
         <v>207</v>
-      </c>
-      <c r="B20" t="s">
-        <v>505</v>
-      </c>
-      <c r="C20" t="s">
-        <v>503</v>
-      </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>208</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -4167,22 +4191,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G21">
         <v>28</v>
@@ -4190,22 +4214,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -4213,22 +4237,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C23" t="s">
+        <v>502</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>170</v>
-      </c>
-      <c r="B23" t="s">
-        <v>505</v>
-      </c>
-      <c r="C23" t="s">
-        <v>503</v>
-      </c>
-      <c r="D23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>171</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -4236,22 +4260,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" t="s">
+        <v>504</v>
+      </c>
+      <c r="C24" t="s">
+        <v>502</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>193</v>
-      </c>
-      <c r="B24" t="s">
-        <v>505</v>
-      </c>
-      <c r="C24" t="s">
-        <v>503</v>
-      </c>
-      <c r="D24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>194</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -4259,22 +4283,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -4282,22 +4306,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -4305,22 +4329,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" t="s">
+        <v>502</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>148</v>
-      </c>
-      <c r="B27" t="s">
-        <v>505</v>
-      </c>
-      <c r="C27" t="s">
-        <v>503</v>
-      </c>
-      <c r="D27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>149</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4328,22 +4352,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C28" t="s">
+        <v>502</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
         <v>213</v>
-      </c>
-      <c r="B28" t="s">
-        <v>505</v>
-      </c>
-      <c r="C28" t="s">
-        <v>503</v>
-      </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s">
-        <v>214</v>
       </c>
       <c r="G28">
         <v>16</v>
@@ -4351,22 +4375,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
+        <v>504</v>
+      </c>
+      <c r="C29" t="s">
+        <v>502</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>505</v>
-      </c>
-      <c r="C29" t="s">
-        <v>503</v>
-      </c>
-      <c r="D29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>185</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -4374,22 +4398,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" t="s">
+        <v>504</v>
+      </c>
+      <c r="C30" t="s">
+        <v>502</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
         <v>182</v>
-      </c>
-      <c r="B30" t="s">
-        <v>505</v>
-      </c>
-      <c r="C30" t="s">
-        <v>503</v>
-      </c>
-      <c r="D30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>183</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -4397,22 +4421,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" t="s">
+        <v>504</v>
+      </c>
+      <c r="C31" t="s">
+        <v>502</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
         <v>180</v>
-      </c>
-      <c r="B31" t="s">
-        <v>505</v>
-      </c>
-      <c r="C31" t="s">
-        <v>503</v>
-      </c>
-      <c r="D31" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>181</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -4420,22 +4444,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" t="s">
+        <v>502</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
         <v>218</v>
-      </c>
-      <c r="B32" t="s">
-        <v>505</v>
-      </c>
-      <c r="C32" t="s">
-        <v>503</v>
-      </c>
-      <c r="D32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" t="s">
-        <v>219</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -4443,22 +4467,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" t="s">
+        <v>504</v>
+      </c>
+      <c r="C33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
         <v>224</v>
-      </c>
-      <c r="B33" t="s">
-        <v>505</v>
-      </c>
-      <c r="C33" t="s">
-        <v>503</v>
-      </c>
-      <c r="D33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>225</v>
       </c>
       <c r="G33">
         <v>8</v>
@@ -4466,22 +4490,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>504</v>
+      </c>
+      <c r="C34" t="s">
+        <v>502</v>
+      </c>
+      <c r="D34" t="s">
         <v>127</v>
       </c>
-      <c r="B34" t="s">
-        <v>505</v>
-      </c>
-      <c r="C34" t="s">
-        <v>503</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
         <v>128</v>
-      </c>
-      <c r="E34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" t="s">
-        <v>129</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -4489,22 +4513,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>504</v>
+      </c>
+      <c r="C35" t="s">
+        <v>502</v>
+      </c>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>144</v>
-      </c>
-      <c r="B35" t="s">
-        <v>505</v>
-      </c>
-      <c r="C35" t="s">
-        <v>503</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>145</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -4512,22 +4536,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
+        <v>504</v>
+      </c>
+      <c r="C36" t="s">
+        <v>502</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
         <v>130</v>
-      </c>
-      <c r="B36" t="s">
-        <v>505</v>
-      </c>
-      <c r="C36" t="s">
-        <v>503</v>
-      </c>
-      <c r="D36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" t="s">
-        <v>131</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -4535,22 +4559,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" t="s">
+        <v>504</v>
+      </c>
+      <c r="C37" t="s">
+        <v>502</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>191</v>
-      </c>
-      <c r="B37" t="s">
-        <v>505</v>
-      </c>
-      <c r="C37" t="s">
-        <v>503</v>
-      </c>
-      <c r="D37" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>192</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -4558,22 +4582,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" t="s">
+        <v>504</v>
+      </c>
+      <c r="C38" t="s">
+        <v>502</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>188</v>
-      </c>
-      <c r="B38" t="s">
-        <v>505</v>
-      </c>
-      <c r="C38" t="s">
-        <v>503</v>
-      </c>
-      <c r="D38" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>189</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4581,22 +4605,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C39" t="s">
+        <v>502</v>
+      </c>
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
         <v>174</v>
-      </c>
-      <c r="B39" t="s">
-        <v>505</v>
-      </c>
-      <c r="C39" t="s">
-        <v>503</v>
-      </c>
-      <c r="D39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" t="s">
-        <v>175</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4604,22 +4628,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
         <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G40">
         <v>12</v>
@@ -4627,22 +4651,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G41">
         <v>17</v>
@@ -4650,22 +4674,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G42">
         <v>16</v>
@@ -4673,22 +4697,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C43" t="s">
+        <v>502</v>
+      </c>
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
         <v>138</v>
-      </c>
-      <c r="B43" t="s">
-        <v>505</v>
-      </c>
-      <c r="C43" t="s">
-        <v>503</v>
-      </c>
-      <c r="D43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" t="s">
-        <v>139</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4696,22 +4720,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s">
+        <v>504</v>
+      </c>
+      <c r="C44" t="s">
+        <v>502</v>
+      </c>
+      <c r="D44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
         <v>136</v>
-      </c>
-      <c r="B44" t="s">
-        <v>505</v>
-      </c>
-      <c r="C44" t="s">
-        <v>503</v>
-      </c>
-      <c r="D44" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" t="s">
-        <v>137</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4719,22 +4743,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>504</v>
+      </c>
+      <c r="C45" t="s">
+        <v>502</v>
+      </c>
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>146</v>
-      </c>
-      <c r="B45" t="s">
-        <v>505</v>
-      </c>
-      <c r="C45" t="s">
-        <v>503</v>
-      </c>
-      <c r="D45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>147</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4742,22 +4766,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" t="s">
+        <v>504</v>
+      </c>
+      <c r="C46" t="s">
+        <v>502</v>
+      </c>
+      <c r="D46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>132</v>
-      </c>
-      <c r="B46" t="s">
-        <v>505</v>
-      </c>
-      <c r="C46" t="s">
-        <v>503</v>
-      </c>
-      <c r="D46" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>133</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4765,22 +4789,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" t="s">
+        <v>504</v>
+      </c>
+      <c r="C47" t="s">
+        <v>502</v>
+      </c>
+      <c r="D47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>157</v>
-      </c>
-      <c r="B47" t="s">
-        <v>505</v>
-      </c>
-      <c r="C47" t="s">
-        <v>503</v>
-      </c>
-      <c r="D47" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>158</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4788,22 +4812,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4811,16 +4835,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -4831,22 +4855,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>504</v>
+      </c>
+      <c r="C50" t="s">
+        <v>502</v>
+      </c>
+      <c r="D50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
         <v>159</v>
-      </c>
-      <c r="B50" t="s">
-        <v>505</v>
-      </c>
-      <c r="C50" t="s">
-        <v>503</v>
-      </c>
-      <c r="D50" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>160</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4854,22 +4878,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" t="s">
+        <v>504</v>
+      </c>
+      <c r="C51" t="s">
+        <v>502</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
         <v>163</v>
-      </c>
-      <c r="B51" t="s">
-        <v>505</v>
-      </c>
-      <c r="C51" t="s">
-        <v>503</v>
-      </c>
-      <c r="D51" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
-        <v>164</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4877,22 +4901,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" t="s">
+        <v>504</v>
+      </c>
+      <c r="C52" t="s">
+        <v>502</v>
+      </c>
+      <c r="D52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
         <v>161</v>
-      </c>
-      <c r="B52" t="s">
-        <v>505</v>
-      </c>
-      <c r="C52" t="s">
-        <v>503</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" t="s">
-        <v>162</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4900,22 +4924,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" t="s">
+        <v>504</v>
+      </c>
+      <c r="C53" t="s">
+        <v>502</v>
+      </c>
+      <c r="D53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
         <v>178</v>
-      </c>
-      <c r="B53" t="s">
-        <v>505</v>
-      </c>
-      <c r="C53" t="s">
-        <v>503</v>
-      </c>
-      <c r="D53" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" t="s">
-        <v>179</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -4923,22 +4947,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" t="s">
+        <v>504</v>
+      </c>
+      <c r="C54" t="s">
+        <v>502</v>
+      </c>
+      <c r="D54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" t="s">
         <v>176</v>
-      </c>
-      <c r="B54" t="s">
-        <v>505</v>
-      </c>
-      <c r="C54" t="s">
-        <v>503</v>
-      </c>
-      <c r="D54" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" t="s">
-        <v>177</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -4946,22 +4970,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B55" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C55" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G55">
         <v>20</v>
@@ -4969,22 +4993,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>504</v>
+      </c>
+      <c r="C56" t="s">
+        <v>502</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>134</v>
-      </c>
-      <c r="B56" t="s">
-        <v>505</v>
-      </c>
-      <c r="C56" t="s">
-        <v>503</v>
-      </c>
-      <c r="D56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>135</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5026,10 +5050,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -5046,22 +5070,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" t="s">
         <v>340</v>
       </c>
-      <c r="B2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>341</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>342</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5069,22 +5093,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5092,22 +5116,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>345</v>
-      </c>
-      <c r="B4" t="s">
-        <v>505</v>
-      </c>
-      <c r="C4" t="s">
-        <v>503</v>
-      </c>
-      <c r="D4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>346</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5115,22 +5139,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5138,22 +5162,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>348</v>
-      </c>
-      <c r="B6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>349</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5161,22 +5185,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -5184,22 +5208,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5207,22 +5231,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5230,22 +5254,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>353</v>
-      </c>
-      <c r="B10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D10" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>354</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5253,22 +5277,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -5276,22 +5300,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>357</v>
-      </c>
-      <c r="B12" t="s">
-        <v>505</v>
-      </c>
-      <c r="C12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>358</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -5299,22 +5323,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>359</v>
-      </c>
-      <c r="B13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13" t="s">
-        <v>503</v>
-      </c>
-      <c r="D13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>360</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5322,22 +5346,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" t="s">
+        <v>502</v>
+      </c>
+      <c r="D14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
         <v>361</v>
-      </c>
-      <c r="B14" t="s">
-        <v>505</v>
-      </c>
-      <c r="C14" t="s">
-        <v>503</v>
-      </c>
-      <c r="D14" t="s">
-        <v>341</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>362</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5345,22 +5369,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" t="s">
+        <v>502</v>
+      </c>
+      <c r="D15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
         <v>363</v>
-      </c>
-      <c r="B15" t="s">
-        <v>505</v>
-      </c>
-      <c r="C15" t="s">
-        <v>503</v>
-      </c>
-      <c r="D15" t="s">
-        <v>341</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>364</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -5368,22 +5392,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C16" t="s">
+        <v>502</v>
+      </c>
+      <c r="D16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
         <v>365</v>
-      </c>
-      <c r="B16" t="s">
-        <v>505</v>
-      </c>
-      <c r="C16" t="s">
-        <v>503</v>
-      </c>
-      <c r="D16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" t="s">
-        <v>366</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -5391,22 +5415,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
         <v>367</v>
-      </c>
-      <c r="B17" t="s">
-        <v>505</v>
-      </c>
-      <c r="C17" t="s">
-        <v>503</v>
-      </c>
-      <c r="D17" t="s">
-        <v>341</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>368</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -5414,22 +5438,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -5437,22 +5461,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C19" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>371</v>
-      </c>
-      <c r="B19" t="s">
-        <v>505</v>
-      </c>
-      <c r="C19" t="s">
-        <v>503</v>
-      </c>
-      <c r="D19" t="s">
-        <v>341</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>372</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -5460,22 +5484,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" t="s">
+        <v>502</v>
+      </c>
+      <c r="D20" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
         <v>373</v>
-      </c>
-      <c r="B20" t="s">
-        <v>505</v>
-      </c>
-      <c r="C20" t="s">
-        <v>503</v>
-      </c>
-      <c r="D20" t="s">
-        <v>341</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>374</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -5483,22 +5507,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" t="s">
+        <v>502</v>
+      </c>
+      <c r="D21" t="s">
+        <v>340</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
         <v>375</v>
-      </c>
-      <c r="B21" t="s">
-        <v>505</v>
-      </c>
-      <c r="C21" t="s">
-        <v>503</v>
-      </c>
-      <c r="D21" t="s">
-        <v>341</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>376</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -5506,22 +5530,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" t="s">
+        <v>502</v>
+      </c>
+      <c r="D22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>377</v>
-      </c>
-      <c r="B22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C22" t="s">
-        <v>503</v>
-      </c>
-      <c r="D22" t="s">
-        <v>341</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>378</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -5529,22 +5553,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>378</v>
+      </c>
+      <c r="B23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C23" t="s">
+        <v>502</v>
+      </c>
+      <c r="D23" t="s">
+        <v>340</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>379</v>
-      </c>
-      <c r="B23" t="s">
-        <v>505</v>
-      </c>
-      <c r="C23" t="s">
-        <v>503</v>
-      </c>
-      <c r="D23" t="s">
-        <v>341</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>380</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -5552,22 +5576,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B24" t="s">
+        <v>504</v>
+      </c>
+      <c r="C24" t="s">
+        <v>502</v>
+      </c>
+      <c r="D24" t="s">
+        <v>340</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
         <v>381</v>
-      </c>
-      <c r="B24" t="s">
-        <v>505</v>
-      </c>
-      <c r="C24" t="s">
-        <v>503</v>
-      </c>
-      <c r="D24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>382</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -5575,22 +5599,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" t="s">
+        <v>504</v>
+      </c>
+      <c r="C25" t="s">
+        <v>502</v>
+      </c>
+      <c r="D25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
         <v>383</v>
-      </c>
-      <c r="B25" t="s">
-        <v>505</v>
-      </c>
-      <c r="C25" t="s">
-        <v>503</v>
-      </c>
-      <c r="D25" t="s">
-        <v>341</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>384</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -5598,22 +5622,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" t="s">
+        <v>504</v>
+      </c>
+      <c r="C26" t="s">
+        <v>502</v>
+      </c>
+      <c r="D26" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
         <v>385</v>
-      </c>
-      <c r="B26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C26" t="s">
-        <v>503</v>
-      </c>
-      <c r="D26" t="s">
-        <v>341</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>386</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -5621,22 +5645,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" t="s">
+        <v>502</v>
+      </c>
+      <c r="D27" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
         <v>387</v>
-      </c>
-      <c r="B27" t="s">
-        <v>505</v>
-      </c>
-      <c r="C27" t="s">
-        <v>503</v>
-      </c>
-      <c r="D27" t="s">
-        <v>341</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>388</v>
       </c>
       <c r="G27">
         <v>15</v>
@@ -5644,22 +5668,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G28">
         <v>20</v>
@@ -5667,22 +5691,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" t="s">
+        <v>504</v>
+      </c>
+      <c r="C29" t="s">
+        <v>502</v>
+      </c>
+      <c r="D29" t="s">
+        <v>340</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
         <v>390</v>
-      </c>
-      <c r="B29" t="s">
-        <v>505</v>
-      </c>
-      <c r="C29" t="s">
-        <v>503</v>
-      </c>
-      <c r="D29" t="s">
-        <v>341</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>391</v>
       </c>
       <c r="G29">
         <v>16</v>
@@ -5690,22 +5714,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -5713,22 +5737,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G31">
         <v>32</v>
@@ -5766,10 +5790,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -5786,22 +5810,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" t="s">
         <v>395</v>
       </c>
-      <c r="B2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D2" t="s">
-        <v>396</v>
-      </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5809,22 +5833,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>397</v>
-      </c>
-      <c r="B3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>398</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5832,22 +5856,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>399</v>
-      </c>
-      <c r="B4" t="s">
-        <v>505</v>
-      </c>
-      <c r="C4" t="s">
-        <v>503</v>
-      </c>
-      <c r="D4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>400</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5855,22 +5879,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>401</v>
-      </c>
-      <c r="B5" t="s">
-        <v>505</v>
-      </c>
-      <c r="C5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>402</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5878,22 +5902,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>403</v>
-      </c>
-      <c r="B6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>404</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5901,22 +5925,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>405</v>
-      </c>
-      <c r="B7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C7" t="s">
-        <v>503</v>
-      </c>
-      <c r="D7" t="s">
-        <v>396</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>406</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5924,22 +5948,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>407</v>
-      </c>
-      <c r="B8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>408</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5947,22 +5971,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>409</v>
-      </c>
-      <c r="B9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" t="s">
-        <v>503</v>
-      </c>
-      <c r="D9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>410</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -5970,22 +5994,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>411</v>
-      </c>
-      <c r="B10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D10" t="s">
-        <v>396</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>412</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -5993,22 +6017,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" t="s">
+        <v>395</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
         <v>413</v>
-      </c>
-      <c r="B11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C11" t="s">
-        <v>503</v>
-      </c>
-      <c r="D11" t="s">
-        <v>396</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>414</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -6016,22 +6040,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>415</v>
-      </c>
-      <c r="B12" t="s">
-        <v>505</v>
-      </c>
-      <c r="C12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D12" t="s">
-        <v>396</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>416</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -6039,22 +6063,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
         <v>417</v>
-      </c>
-      <c r="B13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D13" t="s">
-        <v>396</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>418</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -6062,22 +6086,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" t="s">
+        <v>503</v>
+      </c>
+      <c r="D14" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
         <v>419</v>
-      </c>
-      <c r="B14" t="s">
-        <v>505</v>
-      </c>
-      <c r="C14" t="s">
-        <v>504</v>
-      </c>
-      <c r="D14" t="s">
-        <v>396</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>420</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -6085,22 +6109,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -6108,22 +6132,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G16">
         <v>18</v>
@@ -6131,22 +6155,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -6154,22 +6178,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -6177,22 +6201,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G19">
         <v>12</v>
@@ -6200,22 +6224,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" t="s">
+        <v>502</v>
+      </c>
+      <c r="D20" t="s">
+        <v>395</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
         <v>426</v>
-      </c>
-      <c r="B20" t="s">
-        <v>505</v>
-      </c>
-      <c r="C20" t="s">
-        <v>503</v>
-      </c>
-      <c r="D20" t="s">
-        <v>396</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>427</v>
       </c>
       <c r="G20">
         <v>12</v>
@@ -6223,22 +6247,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" t="s">
+        <v>502</v>
+      </c>
+      <c r="D21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
         <v>428</v>
-      </c>
-      <c r="B21" t="s">
-        <v>505</v>
-      </c>
-      <c r="C21" t="s">
-        <v>503</v>
-      </c>
-      <c r="D21" t="s">
-        <v>396</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>429</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -6246,22 +6270,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -6269,22 +6293,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C23" t="s">
+        <v>503</v>
+      </c>
+      <c r="D23" t="s">
         <v>395</v>
       </c>
-      <c r="B23" t="s">
-        <v>505</v>
-      </c>
-      <c r="C23" t="s">
-        <v>504</v>
-      </c>
-      <c r="D23" t="s">
-        <v>396</v>
-      </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -6292,22 +6316,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -6315,22 +6339,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -6338,22 +6362,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G26">
         <v>42</v>
@@ -6361,22 +6385,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" t="s">
+        <v>502</v>
+      </c>
+      <c r="D27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>435</v>
-      </c>
-      <c r="B27" t="s">
-        <v>505</v>
-      </c>
-      <c r="C27" t="s">
-        <v>503</v>
-      </c>
-      <c r="D27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>436</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6384,22 +6408,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>436</v>
+      </c>
+      <c r="B28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C28" t="s">
+        <v>502</v>
+      </c>
+      <c r="D28" t="s">
+        <v>395</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>437</v>
-      </c>
-      <c r="B28" t="s">
-        <v>505</v>
-      </c>
-      <c r="C28" t="s">
-        <v>503</v>
-      </c>
-      <c r="D28" t="s">
-        <v>396</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>438</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -6407,22 +6431,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B29" t="s">
+        <v>504</v>
+      </c>
+      <c r="C29" t="s">
+        <v>502</v>
+      </c>
+      <c r="D29" t="s">
+        <v>395</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>439</v>
-      </c>
-      <c r="B29" t="s">
-        <v>505</v>
-      </c>
-      <c r="C29" t="s">
-        <v>503</v>
-      </c>
-      <c r="D29" t="s">
-        <v>396</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>440</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -6430,22 +6454,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B30" t="s">
+        <v>504</v>
+      </c>
+      <c r="C30" t="s">
+        <v>502</v>
+      </c>
+      <c r="D30" t="s">
+        <v>395</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>441</v>
-      </c>
-      <c r="B30" t="s">
-        <v>505</v>
-      </c>
-      <c r="C30" t="s">
-        <v>503</v>
-      </c>
-      <c r="D30" t="s">
-        <v>396</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>442</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -6453,22 +6477,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>442</v>
+      </c>
+      <c r="B31" t="s">
+        <v>504</v>
+      </c>
+      <c r="C31" t="s">
+        <v>502</v>
+      </c>
+      <c r="D31" t="s">
+        <v>395</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
         <v>443</v>
-      </c>
-      <c r="B31" t="s">
-        <v>505</v>
-      </c>
-      <c r="C31" t="s">
-        <v>503</v>
-      </c>
-      <c r="D31" t="s">
-        <v>396</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>444</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -6476,22 +6500,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -6529,10 +6553,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6549,22 +6573,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6572,22 +6596,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -6595,22 +6619,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -6618,22 +6642,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -6641,22 +6665,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -6664,22 +6688,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>96</v>
-      </c>
-      <c r="B7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C7" t="s">
-        <v>503</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>97</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6687,22 +6711,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>99</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6710,22 +6734,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" t="s">
-        <v>503</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -6733,22 +6757,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>103</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6756,22 +6780,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C11" t="s">
-        <v>503</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>105</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -6779,22 +6803,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
         <v>106</v>
-      </c>
-      <c r="B12" t="s">
-        <v>505</v>
-      </c>
-      <c r="C12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>107</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -6802,22 +6826,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13" t="s">
-        <v>503</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>109</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -6825,22 +6849,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -6848,22 +6872,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G15">
         <v>26</v>
@@ -6871,22 +6895,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C16" t="s">
+        <v>502</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
         <v>112</v>
-      </c>
-      <c r="B16" t="s">
-        <v>505</v>
-      </c>
-      <c r="C16" t="s">
-        <v>503</v>
-      </c>
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>113</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6894,22 +6918,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
         <v>114</v>
-      </c>
-      <c r="B17" t="s">
-        <v>505</v>
-      </c>
-      <c r="C17" t="s">
-        <v>503</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>115</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -6917,22 +6941,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
         <v>116</v>
-      </c>
-      <c r="B18" t="s">
-        <v>505</v>
-      </c>
-      <c r="C18" t="s">
-        <v>503</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>117</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -6940,22 +6964,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -6963,22 +6987,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" t="s">
+        <v>502</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>118</v>
-      </c>
-      <c r="B20" t="s">
-        <v>505</v>
-      </c>
-      <c r="C20" t="s">
-        <v>503</v>
-      </c>
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>119</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -6986,22 +7010,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" t="s">
+        <v>502</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>120</v>
-      </c>
-      <c r="B21" t="s">
-        <v>505</v>
-      </c>
-      <c r="C21" t="s">
-        <v>503</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>121</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -7009,22 +7033,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" t="s">
+        <v>502</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>123</v>
-      </c>
-      <c r="B22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C22" t="s">
-        <v>503</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>124</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -7062,10 +7086,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -7082,22 +7106,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" t="s">
         <v>230</v>
       </c>
-      <c r="B2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>231</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>232</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7105,22 +7129,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>233</v>
-      </c>
-      <c r="B3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>234</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -7128,22 +7152,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -7151,22 +7175,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -7174,22 +7198,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7197,22 +7221,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>239</v>
-      </c>
-      <c r="B7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C7" t="s">
-        <v>503</v>
-      </c>
-      <c r="D7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>240</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -7220,22 +7244,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -7243,22 +7267,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>242</v>
-      </c>
-      <c r="B9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" t="s">
-        <v>503</v>
-      </c>
-      <c r="D9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>243</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -7266,22 +7290,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>244</v>
-      </c>
-      <c r="B10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>245</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -7289,22 +7313,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>246</v>
-      </c>
-      <c r="B11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C11" t="s">
-        <v>503</v>
-      </c>
-      <c r="D11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>247</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -7312,22 +7336,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>248</v>
-      </c>
-      <c r="B12" t="s">
-        <v>505</v>
-      </c>
-      <c r="C12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>249</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -7335,22 +7359,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>250</v>
-      </c>
-      <c r="B13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13" t="s">
-        <v>503</v>
-      </c>
-      <c r="D13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>251</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -7358,22 +7382,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -7381,22 +7405,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15">
         <v>17</v>
@@ -7404,22 +7428,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G16">
         <v>12</v>
@@ -7427,22 +7451,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>256</v>
-      </c>
-      <c r="B17" t="s">
-        <v>505</v>
-      </c>
-      <c r="C17" t="s">
-        <v>503</v>
-      </c>
-      <c r="D17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>257</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -7450,22 +7474,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>258</v>
-      </c>
-      <c r="B18" t="s">
-        <v>505</v>
-      </c>
-      <c r="C18" t="s">
-        <v>503</v>
-      </c>
-      <c r="D18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>259</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -7473,22 +7497,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C19" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>260</v>
-      </c>
-      <c r="B19" t="s">
-        <v>505</v>
-      </c>
-      <c r="C19" t="s">
-        <v>503</v>
-      </c>
-      <c r="D19" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>261</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -7496,22 +7520,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" t="s">
+        <v>502</v>
+      </c>
+      <c r="D20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
         <v>262</v>
-      </c>
-      <c r="B20" t="s">
-        <v>505</v>
-      </c>
-      <c r="C20" t="s">
-        <v>503</v>
-      </c>
-      <c r="D20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" t="s">
-        <v>263</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -7519,22 +7543,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" t="s">
+        <v>502</v>
+      </c>
+      <c r="D21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>264</v>
-      </c>
-      <c r="B21" t="s">
-        <v>505</v>
-      </c>
-      <c r="C21" t="s">
-        <v>503</v>
-      </c>
-      <c r="D21" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>265</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -7542,22 +7566,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" t="s">
+        <v>502</v>
+      </c>
+      <c r="D22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>266</v>
-      </c>
-      <c r="B22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C22" t="s">
-        <v>503</v>
-      </c>
-      <c r="D22" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>267</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -7565,22 +7589,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -7588,22 +7612,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G24">
         <v>14</v>
@@ -7611,22 +7635,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" t="s">
+        <v>504</v>
+      </c>
+      <c r="C25" t="s">
+        <v>502</v>
+      </c>
+      <c r="D25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
         <v>270</v>
-      </c>
-      <c r="B25" t="s">
-        <v>505</v>
-      </c>
-      <c r="C25" t="s">
-        <v>503</v>
-      </c>
-      <c r="D25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>271</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -7634,22 +7658,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" t="s">
+        <v>504</v>
+      </c>
+      <c r="C26" t="s">
+        <v>502</v>
+      </c>
+      <c r="D26" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
         <v>272</v>
-      </c>
-      <c r="B26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C26" t="s">
-        <v>503</v>
-      </c>
-      <c r="D26" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>273</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -7657,22 +7681,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" t="s">
+        <v>502</v>
+      </c>
+      <c r="D27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
         <v>274</v>
-      </c>
-      <c r="B27" t="s">
-        <v>505</v>
-      </c>
-      <c r="C27" t="s">
-        <v>503</v>
-      </c>
-      <c r="D27" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>275</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -7680,22 +7704,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C28" t="s">
+        <v>502</v>
+      </c>
+      <c r="D28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
         <v>276</v>
-      </c>
-      <c r="B28" t="s">
-        <v>505</v>
-      </c>
-      <c r="C28" t="s">
-        <v>503</v>
-      </c>
-      <c r="D28" t="s">
-        <v>231</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" t="s">
-        <v>277</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -7703,22 +7727,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -7726,22 +7750,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" t="s">
+        <v>504</v>
+      </c>
+      <c r="C30" t="s">
+        <v>502</v>
+      </c>
+      <c r="D30" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>280</v>
-      </c>
-      <c r="B30" t="s">
-        <v>505</v>
-      </c>
-      <c r="C30" t="s">
-        <v>503</v>
-      </c>
-      <c r="D30" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>281</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -7749,22 +7773,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G31">
         <v>15</v>
@@ -7772,22 +7796,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -7795,22 +7819,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B33" t="s">
+        <v>504</v>
+      </c>
+      <c r="C33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D33" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>284</v>
-      </c>
-      <c r="B33" t="s">
-        <v>505</v>
-      </c>
-      <c r="C33" t="s">
-        <v>503</v>
-      </c>
-      <c r="D33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>285</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -7818,22 +7842,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" t="s">
+        <v>504</v>
+      </c>
+      <c r="C34" t="s">
+        <v>502</v>
+      </c>
+      <c r="D34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
         <v>286</v>
-      </c>
-      <c r="B34" t="s">
-        <v>505</v>
-      </c>
-      <c r="C34" t="s">
-        <v>503</v>
-      </c>
-      <c r="D34" t="s">
-        <v>231</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s">
-        <v>287</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -7841,22 +7865,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>287</v>
+      </c>
+      <c r="B35" t="s">
+        <v>504</v>
+      </c>
+      <c r="C35" t="s">
+        <v>502</v>
+      </c>
+      <c r="D35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
         <v>288</v>
-      </c>
-      <c r="B35" t="s">
-        <v>505</v>
-      </c>
-      <c r="C35" t="s">
-        <v>503</v>
-      </c>
-      <c r="D35" t="s">
-        <v>231</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>289</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -7864,22 +7888,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" t="s">
+        <v>504</v>
+      </c>
+      <c r="C36" t="s">
+        <v>502</v>
+      </c>
+      <c r="D36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" t="s">
         <v>290</v>
-      </c>
-      <c r="B36" t="s">
-        <v>505</v>
-      </c>
-      <c r="C36" t="s">
-        <v>503</v>
-      </c>
-      <c r="D36" t="s">
-        <v>231</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" t="s">
-        <v>291</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -7887,22 +7911,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>291</v>
+      </c>
+      <c r="B37" t="s">
+        <v>504</v>
+      </c>
+      <c r="C37" t="s">
+        <v>502</v>
+      </c>
+      <c r="D37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s">
         <v>292</v>
-      </c>
-      <c r="B37" t="s">
-        <v>505</v>
-      </c>
-      <c r="C37" t="s">
-        <v>503</v>
-      </c>
-      <c r="D37" t="s">
-        <v>231</v>
-      </c>
-      <c r="E37" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" t="s">
-        <v>293</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -7910,22 +7934,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" t="s">
+        <v>504</v>
+      </c>
+      <c r="C38" t="s">
+        <v>502</v>
+      </c>
+      <c r="D38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>294</v>
-      </c>
-      <c r="B38" t="s">
-        <v>505</v>
-      </c>
-      <c r="C38" t="s">
-        <v>503</v>
-      </c>
-      <c r="D38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>295</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -7933,22 +7957,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>295</v>
+      </c>
+      <c r="B39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C39" t="s">
+        <v>502</v>
+      </c>
+      <c r="D39" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>296</v>
-      </c>
-      <c r="B39" t="s">
-        <v>505</v>
-      </c>
-      <c r="C39" t="s">
-        <v>503</v>
-      </c>
-      <c r="D39" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>297</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -7956,22 +7980,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -7979,22 +8003,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" t="s">
+        <v>504</v>
+      </c>
+      <c r="C41" t="s">
+        <v>502</v>
+      </c>
+      <c r="D41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>300</v>
-      </c>
-      <c r="B41" t="s">
-        <v>505</v>
-      </c>
-      <c r="C41" t="s">
-        <v>503</v>
-      </c>
-      <c r="D41" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>301</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -8002,22 +8026,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" t="s">
+        <v>504</v>
+      </c>
+      <c r="C42" t="s">
+        <v>502</v>
+      </c>
+      <c r="D42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>302</v>
-      </c>
-      <c r="B42" t="s">
-        <v>505</v>
-      </c>
-      <c r="C42" t="s">
-        <v>503</v>
-      </c>
-      <c r="D42" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" t="s">
-        <v>303</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -8025,22 +8049,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C43" t="s">
+        <v>502</v>
+      </c>
+      <c r="D43" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>304</v>
-      </c>
-      <c r="B43" t="s">
-        <v>505</v>
-      </c>
-      <c r="C43" t="s">
-        <v>503</v>
-      </c>
-      <c r="D43" t="s">
-        <v>231</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>305</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -8048,22 +8072,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" t="s">
+        <v>504</v>
+      </c>
+      <c r="C44" t="s">
+        <v>502</v>
+      </c>
+      <c r="D44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>306</v>
-      </c>
-      <c r="B44" t="s">
-        <v>505</v>
-      </c>
-      <c r="C44" t="s">
-        <v>503</v>
-      </c>
-      <c r="D44" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>307</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -8071,22 +8095,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>307</v>
+      </c>
+      <c r="B45" t="s">
+        <v>504</v>
+      </c>
+      <c r="C45" t="s">
+        <v>502</v>
+      </c>
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>308</v>
-      </c>
-      <c r="B45" t="s">
-        <v>505</v>
-      </c>
-      <c r="C45" t="s">
-        <v>503</v>
-      </c>
-      <c r="D45" t="s">
-        <v>231</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>309</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -8094,22 +8118,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" t="s">
+        <v>504</v>
+      </c>
+      <c r="C46" t="s">
+        <v>502</v>
+      </c>
+      <c r="D46" t="s">
+        <v>230</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
         <v>310</v>
-      </c>
-      <c r="B46" t="s">
-        <v>505</v>
-      </c>
-      <c r="C46" t="s">
-        <v>503</v>
-      </c>
-      <c r="D46" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" t="s">
-        <v>311</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -8117,22 +8141,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" t="s">
+        <v>504</v>
+      </c>
+      <c r="C47" t="s">
+        <v>502</v>
+      </c>
+      <c r="D47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>312</v>
-      </c>
-      <c r="B47" t="s">
-        <v>505</v>
-      </c>
-      <c r="C47" t="s">
-        <v>503</v>
-      </c>
-      <c r="D47" t="s">
-        <v>231</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>313</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -8140,22 +8164,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>313</v>
+      </c>
+      <c r="B48" t="s">
+        <v>504</v>
+      </c>
+      <c r="C48" t="s">
+        <v>502</v>
+      </c>
+      <c r="D48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
         <v>314</v>
-      </c>
-      <c r="B48" t="s">
-        <v>505</v>
-      </c>
-      <c r="C48" t="s">
-        <v>503</v>
-      </c>
-      <c r="D48" t="s">
-        <v>231</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>315</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -8163,22 +8187,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>315</v>
+      </c>
+      <c r="B49" t="s">
+        <v>504</v>
+      </c>
+      <c r="C49" t="s">
+        <v>502</v>
+      </c>
+      <c r="D49" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
         <v>316</v>
-      </c>
-      <c r="B49" t="s">
-        <v>505</v>
-      </c>
-      <c r="C49" t="s">
-        <v>503</v>
-      </c>
-      <c r="D49" t="s">
-        <v>231</v>
-      </c>
-      <c r="E49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" t="s">
-        <v>317</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -8186,22 +8210,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>317</v>
+      </c>
+      <c r="B50" t="s">
+        <v>504</v>
+      </c>
+      <c r="C50" t="s">
+        <v>502</v>
+      </c>
+      <c r="D50" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
         <v>318</v>
-      </c>
-      <c r="B50" t="s">
-        <v>505</v>
-      </c>
-      <c r="C50" t="s">
-        <v>503</v>
-      </c>
-      <c r="D50" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" t="s">
-        <v>319</v>
       </c>
       <c r="G50">
         <v>9</v>
@@ -8209,22 +8233,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>319</v>
+      </c>
+      <c r="B51" t="s">
+        <v>504</v>
+      </c>
+      <c r="C51" t="s">
+        <v>502</v>
+      </c>
+      <c r="D51" t="s">
+        <v>230</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
         <v>320</v>
-      </c>
-      <c r="B51" t="s">
-        <v>505</v>
-      </c>
-      <c r="C51" t="s">
-        <v>503</v>
-      </c>
-      <c r="D51" t="s">
-        <v>231</v>
-      </c>
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" t="s">
-        <v>321</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -8232,22 +8256,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>321</v>
+      </c>
+      <c r="B52" t="s">
+        <v>504</v>
+      </c>
+      <c r="C52" t="s">
+        <v>502</v>
+      </c>
+      <c r="D52" t="s">
+        <v>230</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
         <v>322</v>
-      </c>
-      <c r="B52" t="s">
-        <v>505</v>
-      </c>
-      <c r="C52" t="s">
-        <v>503</v>
-      </c>
-      <c r="D52" t="s">
-        <v>231</v>
-      </c>
-      <c r="E52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" t="s">
-        <v>323</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -8255,22 +8279,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B53" t="s">
+        <v>504</v>
+      </c>
+      <c r="C53" t="s">
+        <v>502</v>
+      </c>
+      <c r="D53" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>324</v>
-      </c>
-      <c r="B53" t="s">
-        <v>505</v>
-      </c>
-      <c r="C53" t="s">
-        <v>503</v>
-      </c>
-      <c r="D53" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>325</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -8278,22 +8302,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B54" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C54" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -8301,22 +8325,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" t="s">
+        <v>504</v>
+      </c>
+      <c r="C55" t="s">
+        <v>502</v>
+      </c>
+      <c r="D55" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" t="s">
         <v>328</v>
-      </c>
-      <c r="B55" t="s">
-        <v>505</v>
-      </c>
-      <c r="C55" t="s">
-        <v>503</v>
-      </c>
-      <c r="D55" t="s">
-        <v>231</v>
-      </c>
-      <c r="E55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" t="s">
-        <v>329</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -8324,22 +8348,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C56" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E56" t="s">
         <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -8347,22 +8371,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>331</v>
+      </c>
+      <c r="B57" t="s">
+        <v>504</v>
+      </c>
+      <c r="C57" t="s">
+        <v>502</v>
+      </c>
+      <c r="D57" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
         <v>332</v>
-      </c>
-      <c r="B57" t="s">
-        <v>505</v>
-      </c>
-      <c r="C57" t="s">
-        <v>503</v>
-      </c>
-      <c r="D57" t="s">
-        <v>231</v>
-      </c>
-      <c r="E57" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" t="s">
-        <v>333</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -8370,22 +8394,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B58" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C58" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E58" t="s">
         <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -8393,22 +8417,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B59" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C59" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E59" t="s">
         <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -8416,22 +8440,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E60" t="s">
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -8439,22 +8463,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C61" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E61" t="s">
         <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -8491,10 +8515,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -8511,22 +8535,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" t="s">
         <v>446</v>
       </c>
-      <c r="B2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
         <v>447</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>448</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -8534,22 +8558,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>449</v>
-      </c>
-      <c r="B3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>450</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -8557,22 +8581,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
         <v>451</v>
-      </c>
-      <c r="B4" t="s">
-        <v>505</v>
-      </c>
-      <c r="C4" t="s">
-        <v>503</v>
-      </c>
-      <c r="D4" t="s">
-        <v>447</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>452</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -8580,22 +8604,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>453</v>
-      </c>
-      <c r="B5" t="s">
-        <v>505</v>
-      </c>
-      <c r="C5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D5" t="s">
-        <v>447</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>454</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -8603,22 +8627,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>455</v>
-      </c>
-      <c r="B6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D6" t="s">
-        <v>447</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>456</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -8626,22 +8650,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -8649,22 +8673,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>459</v>
-      </c>
-      <c r="B8" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>460</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -8672,22 +8696,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>461</v>
-      </c>
-      <c r="B9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" t="s">
-        <v>503</v>
-      </c>
-      <c r="D9" t="s">
-        <v>447</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>462</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8695,22 +8719,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" t="s">
+        <v>446</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>463</v>
-      </c>
-      <c r="B10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D10" t="s">
-        <v>447</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>464</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -8718,22 +8742,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
         <v>465</v>
-      </c>
-      <c r="B11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C11" t="s">
-        <v>503</v>
-      </c>
-      <c r="D11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>466</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8741,22 +8765,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" t="s">
+        <v>446</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
         <v>467</v>
-      </c>
-      <c r="B12" t="s">
-        <v>505</v>
-      </c>
-      <c r="C12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D12" t="s">
-        <v>447</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>468</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -8764,22 +8788,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -8787,22 +8811,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" t="s">
+        <v>502</v>
+      </c>
+      <c r="D14" t="s">
+        <v>446</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
         <v>471</v>
-      </c>
-      <c r="B14" t="s">
-        <v>505</v>
-      </c>
-      <c r="C14" t="s">
-        <v>503</v>
-      </c>
-      <c r="D14" t="s">
-        <v>447</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>472</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -8810,22 +8834,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" t="s">
+        <v>502</v>
+      </c>
+      <c r="D15" t="s">
+        <v>446</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
         <v>473</v>
-      </c>
-      <c r="B15" t="s">
-        <v>505</v>
-      </c>
-      <c r="C15" t="s">
-        <v>503</v>
-      </c>
-      <c r="D15" t="s">
-        <v>447</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>474</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -8833,22 +8857,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>474</v>
+      </c>
+      <c r="B16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C16" t="s">
+        <v>502</v>
+      </c>
+      <c r="D16" t="s">
+        <v>446</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>475</v>
-      </c>
-      <c r="B16" t="s">
-        <v>505</v>
-      </c>
-      <c r="C16" t="s">
-        <v>503</v>
-      </c>
-      <c r="D16" t="s">
-        <v>447</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>476</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -8856,22 +8880,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" t="s">
+        <v>502</v>
+      </c>
+      <c r="D17" t="s">
+        <v>446</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
         <v>477</v>
-      </c>
-      <c r="B17" t="s">
-        <v>505</v>
-      </c>
-      <c r="C17" t="s">
-        <v>503</v>
-      </c>
-      <c r="D17" t="s">
-        <v>447</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>478</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -8879,22 +8903,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D18" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
         <v>479</v>
-      </c>
-      <c r="B18" t="s">
-        <v>505</v>
-      </c>
-      <c r="C18" t="s">
-        <v>503</v>
-      </c>
-      <c r="D18" t="s">
-        <v>447</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>480</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -8902,22 +8926,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -8925,22 +8949,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>481</v>
+      </c>
+      <c r="B20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" t="s">
+        <v>502</v>
+      </c>
+      <c r="D20" t="s">
+        <v>446</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
         <v>482</v>
-      </c>
-      <c r="B20" t="s">
-        <v>505</v>
-      </c>
-      <c r="C20" t="s">
-        <v>503</v>
-      </c>
-      <c r="D20" t="s">
-        <v>447</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>483</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -8948,22 +8972,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" t="s">
+        <v>502</v>
+      </c>
+      <c r="D21" t="s">
+        <v>446</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
         <v>484</v>
-      </c>
-      <c r="B21" t="s">
-        <v>505</v>
-      </c>
-      <c r="C21" t="s">
-        <v>503</v>
-      </c>
-      <c r="D21" t="s">
-        <v>447</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>485</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -8971,22 +8995,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>485</v>
+      </c>
+      <c r="B22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" t="s">
+        <v>502</v>
+      </c>
+      <c r="D22" t="s">
+        <v>446</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
         <v>486</v>
-      </c>
-      <c r="B22" t="s">
-        <v>505</v>
-      </c>
-      <c r="C22" t="s">
-        <v>503</v>
-      </c>
-      <c r="D22" t="s">
-        <v>447</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>487</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -8994,22 +9018,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>487</v>
+      </c>
+      <c r="B23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C23" t="s">
+        <v>502</v>
+      </c>
+      <c r="D23" t="s">
+        <v>446</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
         <v>488</v>
-      </c>
-      <c r="B23" t="s">
-        <v>505</v>
-      </c>
-      <c r="C23" t="s">
-        <v>503</v>
-      </c>
-      <c r="D23" t="s">
-        <v>447</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s">
-        <v>489</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -9017,22 +9041,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -9040,22 +9064,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G25">
         <v>20</v>
@@ -9063,22 +9087,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G26">
         <v>15</v>
@@ -9086,22 +9110,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>492</v>
+      </c>
+      <c r="B27" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D27" t="s">
+        <v>446</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
         <v>493</v>
-      </c>
-      <c r="B27" t="s">
-        <v>505</v>
-      </c>
-      <c r="C27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D27" t="s">
-        <v>447</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" t="s">
-        <v>494</v>
       </c>
       <c r="G27">
         <v>25</v>
@@ -9109,22 +9133,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -9132,22 +9156,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D29" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -9155,22 +9179,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -9178,22 +9202,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -9201,22 +9225,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>498</v>
+      </c>
+      <c r="B32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" t="s">
+        <v>502</v>
+      </c>
+      <c r="D32" t="s">
+        <v>446</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
         <v>499</v>
-      </c>
-      <c r="B32" t="s">
-        <v>505</v>
-      </c>
-      <c r="C32" t="s">
-        <v>503</v>
-      </c>
-      <c r="D32" t="s">
-        <v>447</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" t="s">
-        <v>500</v>
       </c>
       <c r="G32">
         <v>6</v>
